--- a/PythonResources/Data/Consumption/Sympheny/post_1058x1060_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1058x1060_hea.xlsx
@@ -455,7 +455,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>573.8477472508472</v>
+        <v>573.8477472508471</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -471,7 +471,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>569.5777022175514</v>
+        <v>569.5777022175513</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -479,7 +479,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>637.5555296350504</v>
+        <v>637.5555296350503</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1379.505893951659</v>
+        <v>1379.505893951658</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>536.7713301498004</v>
+        <v>536.7713301498003</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>710.3543756385286</v>
+        <v>710.3543756385285</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>710.040789627161</v>
+        <v>710.0407896271608</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>691.4659471968049</v>
+        <v>691.4659471968048</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>644.2961635242614</v>
+        <v>644.2961635242613</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>545.5077778122951</v>
+        <v>545.507777812295</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>654.0612905324574</v>
+        <v>654.0612905324573</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>771.8553331016119</v>
+        <v>771.8553331016118</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>943.2667221938596</v>
+        <v>943.2667221938594</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1035.141562103805</v>
+        <v>1035.141562103804</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1042.345248234101</v>
+        <v>1042.3452482341</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>1977.716636646424</v>
+        <v>1977.716636646423</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>1970.03524472311</v>
+        <v>1970.035244723109</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>1691.726194279137</v>
+        <v>1691.726194279136</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>1401.386577698115</v>
+        <v>1401.386577698114</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>1559.255154093822</v>
+        <v>1559.255154093821</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>844.7919224932609</v>
+        <v>844.7919224932608</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>1894.507907349695</v>
+        <v>1894.507907349694</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>705.9348643755155</v>
+        <v>705.9348643755154</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>684.1860625964571</v>
+        <v>684.186062596457</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>1900.914440254832</v>
+        <v>1900.914440254831</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>1468.306418666047</v>
+        <v>1468.306418666046</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>883.4450617823057</v>
+        <v>883.4450617823056</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>898.7785385250673</v>
+        <v>898.7785385250672</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>1143.530955042317</v>
+        <v>1143.530955042316</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>1331.999078584655</v>
+        <v>1331.999078584654</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>765.425354513382</v>
+        <v>765.4253545133819</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>593.8381227979376</v>
+        <v>593.8381227979374</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>971.263798517178</v>
+        <v>971.2637985171776</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>760.5457217196706</v>
+        <v>760.5457217196705</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>493.4231928214008</v>
+        <v>493.4231928214007</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>757.6853483823359</v>
+        <v>757.6853483823357</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>756.1848246643898</v>
+        <v>756.1848246643897</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2879,7 +2879,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>760.5310681677375</v>
+        <v>760.5310681677374</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3007,7 +3007,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>1934.016814071631</v>
+        <v>1934.01681407163</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3087,7 +3087,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>2030.021024916314</v>
+        <v>2030.021024916313</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3111,7 +3111,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>2007.275781605807</v>
+        <v>2007.275781605806</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>2017.040908614003</v>
+        <v>2017.040908614002</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>2026.117318681345</v>
+        <v>2026.117318681344</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>1936.99441582443</v>
+        <v>1936.994415824429</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3967,7 +3967,7 @@
         <v>453</v>
       </c>
       <c r="B453">
-        <v>2052.631455549037</v>
+        <v>2052.631455549036</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>2050.486175546036</v>
+        <v>2050.486175546035</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>2021.149764576035</v>
+        <v>2021.149764576034</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>1967.148494992296</v>
+        <v>1967.148494992295</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>2046.602984283773</v>
+        <v>2046.602984283772</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>2026.211101413717</v>
+        <v>2026.211101413716</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>2082.75329690265</v>
+        <v>2082.753296902649</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>2123.003673352399</v>
+        <v>2123.003673352398</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>2115.650520992386</v>
+        <v>2115.650520992385</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>512</v>
       </c>
       <c r="B512">
-        <v>2092.070025221694</v>
+        <v>2092.070025221693</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>2065.550026933229</v>
+        <v>2065.550026933228</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>2076.537260172643</v>
+        <v>2076.537260172642</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>2102.641097586209</v>
+        <v>2102.641097586208</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>2060.128212717994</v>
+        <v>2060.128212717993</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4903,7 +4903,7 @@
         <v>570</v>
       </c>
       <c r="B570">
-        <v>2041.864025588619</v>
+        <v>2041.864025588618</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>2030.111876938299</v>
+        <v>2030.111876938298</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5063,7 +5063,7 @@
         <v>590</v>
       </c>
       <c r="B590">
-        <v>1967.174871385775</v>
+        <v>1967.174871385774</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>1961.937691924897</v>
+        <v>1961.937691924896</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>2012.753279318388</v>
+        <v>2012.753279318387</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>1915.855201805787</v>
+        <v>1915.855201805786</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5319,7 +5319,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>1950.118136935685</v>
+        <v>1950.118136935684</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>2084.21572138557</v>
+        <v>2084.215721385569</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>2047.256532699988</v>
+        <v>2047.256532699987</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>1985.875734362756</v>
+        <v>1985.875734362755</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>2002.211514057739</v>
+        <v>2002.211514057738</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>2034.633963064844</v>
+        <v>2034.633963064843</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>2061.740103430632</v>
+        <v>2061.740103430631</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6687,7 +6687,7 @@
         <v>793</v>
       </c>
       <c r="B793">
-        <v>2078.084675256775</v>
+        <v>2078.084675256774</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>2088.110635489379</v>
+        <v>2088.110635489378</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>2136.130325174041</v>
+        <v>2136.13032517404</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>2085.165271550833</v>
+        <v>2085.165271550832</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7175,7 +7175,7 @@
         <v>854</v>
       </c>
       <c r="B854">
-        <v>2050.213619480081</v>
+        <v>2050.21361948008</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7951,7 +7951,7 @@
         <v>951</v>
       </c>
       <c r="B951">
-        <v>939.5916113690464</v>
+        <v>939.5916113690462</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>914.8065936294564</v>
+        <v>914.8065936294562</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>1359.861342230189</v>
+        <v>1359.861342230188</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>932.4465394464828</v>
+        <v>932.4465394464826</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>850.4306092771052</v>
+        <v>850.4306092771051</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>794.9288159754196</v>
+        <v>794.9288159754195</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>1105.842019470468</v>
+        <v>1105.842019470467</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>1988.223233382433</v>
+        <v>1988.223233382432</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8511,7 +8511,7 @@
         <v>1021</v>
       </c>
       <c r="B1021">
-        <v>1963.842653676196</v>
+        <v>1963.842653676195</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -8567,7 +8567,7 @@
         <v>1028</v>
       </c>
       <c r="B1028">
-        <v>1988.876781798648</v>
+        <v>1988.876781798647</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>1983.106213047406</v>
+        <v>1983.106213047405</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>1914.42501513712</v>
+        <v>1914.425015137119</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9103,7 +9103,7 @@
         <v>1095</v>
       </c>
       <c r="B1095">
-        <v>1268.349910408184</v>
+        <v>1268.349910408183</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>1985.600247586414</v>
+        <v>1985.600247586413</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>2008.559432755144</v>
+        <v>2008.559432755143</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>2042.640663841072</v>
+        <v>2042.640663841071</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>1671.691858076247</v>
+        <v>1671.691858076246</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>1880.935787549288</v>
+        <v>1880.935787549287</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>1980.755783317342</v>
+        <v>1980.755783317341</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -10055,7 +10055,7 @@
         <v>1214</v>
       </c>
       <c r="B1214">
-        <v>921.1046902502886</v>
+        <v>921.1046902502884</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
@@ -10103,7 +10103,7 @@
         <v>1220</v>
       </c>
       <c r="B1220">
-        <v>813.3834992799245</v>
+        <v>813.3834992799244</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>817.0322337112583</v>
+        <v>817.0322337112582</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>863.768272246583</v>
+        <v>863.7682722465829</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>802.9208631997145</v>
+        <v>802.9208631997144</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10215,7 +10215,7 @@
         <v>1234</v>
       </c>
       <c r="B1234">
-        <v>750.4963158039731</v>
+        <v>750.4963158039729</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -10271,7 +10271,7 @@
         <v>1241</v>
       </c>
       <c r="B1241">
-        <v>588.3166644295578</v>
+        <v>588.3166644295577</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>628.2651777094858</v>
+        <v>628.2651777094857</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>656.5318793883725</v>
+        <v>656.5318793883724</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10295,7 +10295,7 @@
         <v>1244</v>
       </c>
       <c r="B1244">
-        <v>682.1023275115749</v>
+        <v>682.1023275115748</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -10383,7 +10383,7 @@
         <v>1255</v>
       </c>
       <c r="B1255">
-        <v>777.9600028369277</v>
+        <v>777.9600028369276</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>685.3495546199426</v>
+        <v>685.3495546199425</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10471,7 +10471,7 @@
         <v>1266</v>
       </c>
       <c r="B1266">
-        <v>704.2965972693986</v>
+        <v>704.2965972693985</v>
       </c>
     </row>
     <row r="1267" spans="1:2">
@@ -10487,7 +10487,7 @@
         <v>1268</v>
       </c>
       <c r="B1268">
-        <v>734.3774086775991</v>
+        <v>734.377408677599</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>787.8716653644544</v>
+        <v>787.8716653644543</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>963.3889797083476</v>
+        <v>963.3889797083474</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>918.6780620501728</v>
+        <v>918.6780620501726</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>742.7270025690608</v>
+        <v>742.7270025690607</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>741.1063197252636</v>
+        <v>741.1063197252635</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10863,7 +10863,7 @@
         <v>1315</v>
       </c>
       <c r="B1315">
-        <v>755.0359861928373</v>
+        <v>755.0359861928372</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>793.7682546623207</v>
+        <v>793.7682546623206</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10919,7 +10919,7 @@
         <v>1322</v>
       </c>
       <c r="B1322">
-        <v>954.9807716091536</v>
+        <v>954.9807716091534</v>
       </c>
     </row>
     <row r="1323" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>860.8668689638357</v>
+        <v>860.8668689638356</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>527.0824016116563</v>
+        <v>527.0824016116562</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11015,7 +11015,7 @@
         <v>1334</v>
       </c>
       <c r="B1334">
-        <v>494.7039132603509</v>
+        <v>494.7039132603508</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>685.6162492651245</v>
+        <v>685.6162492651243</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>764.2794467522161</v>
+        <v>764.279446752216</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>867.862474656682</v>
+        <v>867.8624746566819</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>630.9760848171032</v>
+        <v>630.9760848171031</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>731.6987393842344</v>
+        <v>731.6987393842343</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11359,7 +11359,7 @@
         <v>1377</v>
       </c>
       <c r="B1377">
-        <v>758.9074546135537</v>
+        <v>758.9074546135536</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>554.0976899554591</v>
+        <v>554.097689955459</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>623.0866124563398</v>
+        <v>623.0866124563397</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11479,7 +11479,7 @@
         <v>1392</v>
       </c>
       <c r="B1392">
-        <v>657.6924407014715</v>
+        <v>657.6924407014714</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>482.8110905114735</v>
+        <v>482.8110905114734</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>429.0706541521426</v>
+        <v>429.0706541521425</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11623,7 +11623,7 @@
         <v>1410</v>
       </c>
       <c r="B1410">
-        <v>496.5795679077835</v>
+        <v>496.5795679077834</v>
       </c>
     </row>
     <row r="1411" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>1945.742586328471</v>
+        <v>1945.74258632847</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11767,7 +11767,7 @@
         <v>1428</v>
       </c>
       <c r="B1428">
-        <v>1918.117710224253</v>
+        <v>1918.117710224252</v>
       </c>
     </row>
     <row r="1429" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>1994.357210221615</v>
+        <v>1994.357210221614</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>2057.300077194912</v>
+        <v>2057.300077194911</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>2012.753279318388</v>
+        <v>2012.753279318387</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>1895.407635438385</v>
+        <v>1895.407635438384</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12711,7 +12711,7 @@
         <v>1546</v>
       </c>
       <c r="B1546">
-        <v>1408.801274976247</v>
+        <v>1408.801274976246</v>
       </c>
     </row>
     <row r="1547" spans="1:2">
@@ -12799,7 +12799,7 @@
         <v>1557</v>
       </c>
       <c r="B1557">
-        <v>889.1775312985217</v>
+        <v>889.1775312985216</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>603.4391300244832</v>
+        <v>603.4391300244831</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>752.225434932075</v>
+        <v>752.2254349320749</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>790.2396793568381</v>
+        <v>790.239679356838</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>1973.250234017225</v>
+        <v>1973.250234017224</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>1974.349250412205</v>
+        <v>1974.349250412204</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>2073.676886835308</v>
+        <v>2073.676886835307</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>2002.123592746141</v>
+        <v>2002.12359274614</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13663,7 +13663,7 @@
         <v>1665</v>
       </c>
       <c r="B1665">
-        <v>1976.136983748039</v>
+        <v>1976.136983748038</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>1342.385516194813</v>
+        <v>1342.385516194812</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>1978.012638395472</v>
+        <v>1978.012638395471</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>1989.026248028365</v>
+        <v>1989.026248028364</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>810.1098957780773</v>
+        <v>810.1098957780772</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>1124.296702774973</v>
+        <v>1124.296702774972</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>1230.754757568707</v>
+        <v>1230.754757568706</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>1883.435683509069</v>
+        <v>1883.435683509068</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14119,7 +14119,7 @@
         <v>1722</v>
       </c>
       <c r="B1722">
-        <v>997.7134597563644</v>
+        <v>997.7134597563642</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -14151,7 +14151,7 @@
         <v>1726</v>
       </c>
       <c r="B1726">
-        <v>1411.600103395463</v>
+        <v>1411.600103395462</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>1384.927708166894</v>
+        <v>1384.927708166893</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14455,7 +14455,7 @@
         <v>1764</v>
       </c>
       <c r="B1764">
-        <v>1260.401823839688</v>
+        <v>1260.401823839687</v>
       </c>
     </row>
     <row r="1765" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>1998.937910555892</v>
+        <v>1998.937910555891</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14727,7 +14727,7 @@
         <v>1798</v>
       </c>
       <c r="B1798">
-        <v>1337.684656734685</v>
+        <v>1337.684656734684</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -14735,7 +14735,7 @@
         <v>1799</v>
       </c>
       <c r="B1799">
-        <v>1889.897899911552</v>
+        <v>1889.897899911551</v>
       </c>
     </row>
     <row r="1800" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>2010.939169589074</v>
+        <v>2010.939169589073</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>912.0370723141066</v>
+        <v>912.0370723141064</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>984.8388490279714</v>
+        <v>984.8388490279712</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>777.3035237103263</v>
+        <v>777.3035237103262</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15231,7 +15231,7 @@
         <v>1861</v>
       </c>
       <c r="B1861">
-        <v>630.1261788049853</v>
+        <v>630.1261788049852</v>
       </c>
     </row>
     <row r="1862" spans="1:2">
@@ -15255,7 +15255,7 @@
         <v>1864</v>
       </c>
       <c r="B1864">
-        <v>515.977939956778</v>
+        <v>515.9779399567778</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>792.9330022021359</v>
+        <v>792.9330022021358</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>631.8084065669015</v>
+        <v>631.8084065669013</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15599,7 +15599,7 @@
         <v>1907</v>
       </c>
       <c r="B1907">
-        <v>843.5112020543108</v>
+        <v>843.5112020543107</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>838.0483578936634</v>
+        <v>838.0483578936633</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>872.0592519303125</v>
+        <v>872.0592519303124</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>1420.591522861593</v>
+        <v>1420.591522861592</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>556.6708536749057</v>
+        <v>556.6708536749056</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15847,7 +15847,7 @@
         <v>1938</v>
       </c>
       <c r="B1938">
-        <v>574.6976532629651</v>
+        <v>574.697653262965</v>
       </c>
     </row>
     <row r="1939" spans="1:2">
@@ -16319,7 +16319,7 @@
         <v>1997</v>
       </c>
       <c r="B1997">
-        <v>1494.832278375285</v>
+        <v>1494.832278375284</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>805.7783058266626</v>
+        <v>805.7783058266625</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -17167,7 +17167,7 @@
         <v>2103</v>
       </c>
       <c r="B2103">
-        <v>623.2507322379902</v>
+        <v>623.2507322379901</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
@@ -17175,7 +17175,7 @@
         <v>2104</v>
       </c>
       <c r="B2104">
-        <v>559.3055623124712</v>
+        <v>559.3055623124711</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -17231,7 +17231,7 @@
         <v>2111</v>
       </c>
       <c r="B2111">
-        <v>896.5277529481482</v>
+        <v>896.5277529481481</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>400.7453382655236</v>
+        <v>400.7453382655235</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>857.0100540950524</v>
+        <v>857.0100540950523</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>1324.522836388404</v>
+        <v>1324.522836388403</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>964.9363947924794</v>
+        <v>964.9363947924792</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>931.9688336534648</v>
+        <v>931.9688336534646</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>1228.697398877304</v>
+        <v>1228.697398877303</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>828.9543635640018</v>
+        <v>828.9543635640017</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17815,7 +17815,7 @@
         <v>2184</v>
       </c>
       <c r="B2184">
-        <v>1407.195245684383</v>
+        <v>1407.195245684382</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>1306.903405544084</v>
+        <v>1306.903405544083</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -17895,7 +17895,7 @@
         <v>2194</v>
       </c>
       <c r="B2194">
-        <v>660.6553889023377</v>
+        <v>660.6553889023376</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
@@ -17951,7 +17951,7 @@
         <v>2201</v>
       </c>
       <c r="B2201">
-        <v>374.251716370538</v>
+        <v>374.2517163705379</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>753.7288893604077</v>
+        <v>753.7288893604076</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18015,7 +18015,7 @@
         <v>2209</v>
       </c>
       <c r="B2209">
-        <v>819.6053974307049</v>
+        <v>819.6053974307048</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
@@ -18039,7 +18039,7 @@
         <v>2212</v>
       </c>
       <c r="B2212">
-        <v>1415.708959357495</v>
+        <v>1415.708959357494</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>1084.705736162212</v>
+        <v>1084.705736162211</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18071,7 +18071,7 @@
         <v>2216</v>
       </c>
       <c r="B2216">
-        <v>771.0992098218657</v>
+        <v>771.0992098218655</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
@@ -18159,7 +18159,7 @@
         <v>2227</v>
       </c>
       <c r="B2227">
-        <v>439.4746760246204</v>
+        <v>439.4746760246203</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
@@ -18167,7 +18167,7 @@
         <v>2228</v>
       </c>
       <c r="B2228">
-        <v>539.0045314643999</v>
+        <v>539.0045314643997</v>
       </c>
     </row>
     <row r="2229" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>610.4493892692626</v>
+        <v>610.4493892692625</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18215,7 +18215,7 @@
         <v>2234</v>
       </c>
       <c r="B2234">
-        <v>759.5023888220362</v>
+        <v>759.5023888220361</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
@@ -18231,7 +18231,7 @@
         <v>2236</v>
       </c>
       <c r="B2236">
-        <v>985.7473692478216</v>
+        <v>985.7473692478214</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>740.9275463916802</v>
+        <v>740.92754639168</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18263,7 +18263,7 @@
         <v>2240</v>
       </c>
       <c r="B2240">
-        <v>630.826618587386</v>
+        <v>630.8266185873858</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
@@ -18407,7 +18407,7 @@
         <v>2258</v>
       </c>
       <c r="B2258">
-        <v>724.5536674616708</v>
+        <v>724.5536674616707</v>
       </c>
     </row>
     <row r="2259" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>729.2574576321854</v>
+        <v>729.2574576321853</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>738.5155717434973</v>
+        <v>738.5155717434972</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18511,7 +18511,7 @@
         <v>2271</v>
       </c>
       <c r="B2271">
-        <v>390.4761290708301</v>
+        <v>390.47612907083</v>
       </c>
     </row>
     <row r="2272" spans="1:2">
@@ -18535,7 +18535,7 @@
         <v>2274</v>
       </c>
       <c r="B2274">
-        <v>502.4966721783561</v>
+        <v>502.496672178356</v>
       </c>
     </row>
     <row r="2275" spans="1:2">
@@ -18543,7 +18543,7 @@
         <v>2275</v>
       </c>
       <c r="B2275">
-        <v>569.9792095405174</v>
+        <v>569.9792095405173</v>
       </c>
     </row>
     <row r="2276" spans="1:2">
@@ -18567,7 +18567,7 @@
         <v>2278</v>
       </c>
       <c r="B2278">
-        <v>728.1994711826179</v>
+        <v>728.1994711826178</v>
       </c>
     </row>
     <row r="2279" spans="1:2">
@@ -18575,7 +18575,7 @@
         <v>2279</v>
       </c>
       <c r="B2279">
-        <v>758.7140277280372</v>
+        <v>758.7140277280371</v>
       </c>
     </row>
     <row r="2280" spans="1:2">
@@ -18607,7 +18607,7 @@
         <v>2283</v>
       </c>
       <c r="B2283">
-        <v>857.1302132209036</v>
+        <v>857.1302132209034</v>
       </c>
     </row>
     <row r="2284" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>843.2122695948763</v>
+        <v>843.2122695948761</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>812.864763541494</v>
+        <v>812.8647635414939</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18631,7 +18631,7 @@
         <v>2286</v>
       </c>
       <c r="B2286">
-        <v>781.711312131793</v>
+        <v>781.7113121317929</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>693.1188678548549</v>
+        <v>693.1188678548548</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>736.6252635441316</v>
+        <v>736.6252635441315</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18871,7 +18871,7 @@
         <v>2316</v>
       </c>
       <c r="B2316">
-        <v>490.8939897577534</v>
+        <v>490.8939897577533</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -18927,7 +18927,7 @@
         <v>2323</v>
       </c>
       <c r="B2323">
-        <v>594.80525722552</v>
+        <v>594.8052572255199</v>
       </c>
     </row>
     <row r="2324" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>654.7763838667911</v>
+        <v>654.776383866791</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -18967,7 +18967,7 @@
         <v>2328</v>
       </c>
       <c r="B2328">
-        <v>884.1161944608402</v>
+        <v>884.1161944608401</v>
       </c>
     </row>
     <row r="2329" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>700.1291270996343</v>
+        <v>700.1291270996342</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19247,7 +19247,7 @@
         <v>2363</v>
       </c>
       <c r="B2363">
-        <v>1328.277076393656</v>
+        <v>1328.277076393655</v>
       </c>
     </row>
     <row r="2364" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>1979.891223753291</v>
+        <v>1979.89122375329</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>2008.58873985901</v>
+        <v>2008.588739859009</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>2005.192046520925</v>
+        <v>2005.192046520924</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19423,7 +19423,7 @@
         <v>2385</v>
       </c>
       <c r="B2385">
-        <v>1964.976838595815</v>
+        <v>1964.976838595814</v>
       </c>
     </row>
     <row r="2386" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>769.0154747369835</v>
+        <v>769.0154747369834</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>862.6370180373502</v>
+        <v>862.6370180373501</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>843.2415766987424</v>
+        <v>843.2415766987423</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>543.051842508313</v>
+        <v>543.0518425083129</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -19679,7 +19679,7 @@
         <v>2417</v>
       </c>
       <c r="B2417">
-        <v>517.8096339484114</v>
+        <v>517.8096339484113</v>
       </c>
     </row>
     <row r="2418" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>675.8804293607946</v>
+        <v>675.8804293607944</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>901.8294080375319</v>
+        <v>901.8294080375318</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>640.993252918548</v>
+        <v>640.9932529185479</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>690.5134663211555</v>
+        <v>690.5134663211554</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19935,7 +19935,7 @@
         <v>2449</v>
       </c>
       <c r="B2449">
-        <v>725.1954930363391</v>
+        <v>725.195493036339</v>
       </c>
     </row>
     <row r="2450" spans="1:2">
@@ -20087,7 +20087,7 @@
         <v>2468</v>
       </c>
       <c r="B2468">
-        <v>781.3977261204253</v>
+        <v>781.3977261204252</v>
       </c>
     </row>
     <row r="2469" spans="1:2">
@@ -20159,7 +20159,7 @@
         <v>2477</v>
       </c>
       <c r="B2477">
-        <v>1513.855519494793</v>
+        <v>1513.855519494792</v>
       </c>
     </row>
     <row r="2478" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>868.9497682101156</v>
+        <v>868.9497682101155</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20415,7 +20415,7 @@
         <v>2509</v>
       </c>
       <c r="B2509">
-        <v>726.5201741310884</v>
+        <v>726.5201741310883</v>
       </c>
     </row>
     <row r="2510" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>679.7079371257117</v>
+        <v>679.7079371257116</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20463,7 +20463,7 @@
         <v>2515</v>
       </c>
       <c r="B2515">
-        <v>752.8643297963567</v>
+        <v>752.8643297963566</v>
       </c>
     </row>
     <row r="2516" spans="1:2">
@@ -20479,7 +20479,7 @@
         <v>2517</v>
       </c>
       <c r="B2517">
-        <v>1097.29899869349</v>
+        <v>1097.298998693489</v>
       </c>
     </row>
     <row r="2518" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>1432.434523533898</v>
+        <v>1432.434523533897</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20639,7 +20639,7 @@
         <v>2537</v>
       </c>
       <c r="B2537">
-        <v>311.2531658998952</v>
+        <v>311.2531658998951</v>
       </c>
     </row>
     <row r="2538" spans="1:2">
@@ -20671,7 +20671,7 @@
         <v>2541</v>
       </c>
       <c r="B2541">
-        <v>627.4914701674198</v>
+        <v>627.4914701674197</v>
       </c>
     </row>
     <row r="2542" spans="1:2">
@@ -20711,7 +20711,7 @@
         <v>2546</v>
       </c>
       <c r="B2546">
-        <v>861.8926175991504</v>
+        <v>861.8926175991503</v>
       </c>
     </row>
     <row r="2547" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>799.7351810094657</v>
+        <v>799.7351810094656</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20823,7 +20823,7 @@
         <v>2560</v>
       </c>
       <c r="B2560">
-        <v>816.3904081365899</v>
+        <v>816.3904081365898</v>
       </c>
     </row>
     <row r="2561" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>829.8306459695992</v>
+        <v>829.8306459695991</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>1436.338229768867</v>
+        <v>1436.338229768866</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>701.5417295059819</v>
+        <v>701.5417295059818</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21359,7 +21359,7 @@
         <v>2627</v>
       </c>
       <c r="B2627">
-        <v>609.0807475187141</v>
+        <v>609.080747518714</v>
       </c>
     </row>
     <row r="2628" spans="1:2">
@@ -21439,7 +21439,7 @@
         <v>2637</v>
       </c>
       <c r="B2637">
-        <v>790.9371884288521</v>
+        <v>790.937188428852</v>
       </c>
     </row>
     <row r="2638" spans="1:2">
@@ -21455,7 +21455,7 @@
         <v>2639</v>
       </c>
       <c r="B2639">
-        <v>979.8097500045428</v>
+        <v>979.8097500045426</v>
       </c>
     </row>
     <row r="2640" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>872.4754128052116</v>
+        <v>872.4754128052115</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>1205.42169698682</v>
+        <v>1205.421696986819</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21711,7 +21711,7 @@
         <v>2671</v>
       </c>
       <c r="B2671">
-        <v>1217.924107496113</v>
+        <v>1217.924107496112</v>
       </c>
     </row>
     <row r="2672" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>855.9696519078046</v>
+        <v>855.9696519078045</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>794.8233104015015</v>
+        <v>794.8233104015014</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21807,7 +21807,7 @@
         <v>2683</v>
       </c>
       <c r="B2683">
-        <v>769.6690231531983</v>
+        <v>769.6690231531982</v>
       </c>
     </row>
     <row r="2684" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>1019.63810415862</v>
+        <v>1019.638104158619</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21911,7 +21911,7 @@
         <v>2696</v>
       </c>
       <c r="B2696">
-        <v>830.9179395230328</v>
+        <v>830.9179395230327</v>
       </c>
     </row>
     <row r="2697" spans="1:2">
@@ -21919,7 +21919,7 @@
         <v>2697</v>
       </c>
       <c r="B2697">
-        <v>804.0521174089473</v>
+        <v>804.0521174089472</v>
       </c>
     </row>
     <row r="2698" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>770.6361575807807</v>
+        <v>770.6361575807806</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>772.2597711349646</v>
+        <v>772.2597711349645</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22023,7 +22023,7 @@
         <v>2710</v>
       </c>
       <c r="B2710">
-        <v>1200.386736542618</v>
+        <v>1200.386736542617</v>
       </c>
     </row>
     <row r="2711" spans="1:2">
@@ -22135,7 +22135,7 @@
         <v>2724</v>
       </c>
       <c r="B2724">
-        <v>629.4726303887705</v>
+        <v>629.4726303887704</v>
       </c>
     </row>
     <row r="2725" spans="1:2">
@@ -22143,7 +22143,7 @@
         <v>2725</v>
       </c>
       <c r="B2725">
-        <v>581.5877533818933</v>
+        <v>581.5877533818932</v>
       </c>
     </row>
     <row r="2726" spans="1:2">
@@ -22183,7 +22183,7 @@
         <v>2730</v>
       </c>
       <c r="B2730">
-        <v>564.5603260356692</v>
+        <v>564.560326035669</v>
       </c>
     </row>
     <row r="2731" spans="1:2">
@@ -22247,7 +22247,7 @@
         <v>2738</v>
       </c>
       <c r="B2738">
-        <v>830.947246626899</v>
+        <v>830.9472466268988</v>
       </c>
     </row>
     <row r="2739" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>800.1073812285656</v>
+        <v>800.1073812285655</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>832.8082477223985</v>
+        <v>832.8082477223984</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>866.0307806650486</v>
+        <v>866.0307806650485</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>886.021156212139</v>
+        <v>886.0211562121389</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>871.2093459181946</v>
+        <v>871.2093459181945</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22911,7 +22911,7 @@
         <v>2821</v>
       </c>
       <c r="B2821">
-        <v>651.4998496545572</v>
+        <v>651.4998496545571</v>
       </c>
     </row>
     <row r="2822" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>948.714912802574</v>
+        <v>948.7149128025738</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23015,7 +23015,7 @@
         <v>2834</v>
       </c>
       <c r="B2834">
-        <v>1076.72834248985</v>
+        <v>1076.728342489849</v>
       </c>
     </row>
     <row r="2835" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>1167.466066769789</v>
+        <v>1167.466066769788</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23071,7 +23071,7 @@
         <v>2841</v>
       </c>
       <c r="B2841">
-        <v>831.8411132948161</v>
+        <v>831.841113294816</v>
       </c>
     </row>
     <row r="2842" spans="1:2">
@@ -23095,7 +23095,7 @@
         <v>2844</v>
       </c>
       <c r="B2844">
-        <v>657.0975064929889</v>
+        <v>657.0975064929888</v>
       </c>
     </row>
     <row r="2845" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>437.8012403938641</v>
+        <v>437.801240393864</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>574.5188799293817</v>
+        <v>574.5188799293816</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23167,7 +23167,7 @@
         <v>2853</v>
       </c>
       <c r="B2853">
-        <v>774.3728133237129</v>
+        <v>774.3728133237128</v>
       </c>
     </row>
     <row r="2854" spans="1:2">
@@ -23239,7 +23239,7 @@
         <v>2862</v>
       </c>
       <c r="B2862">
-        <v>973.734387373093</v>
+        <v>973.7343873730928</v>
       </c>
     </row>
     <row r="2863" spans="1:2">
@@ -23295,7 +23295,7 @@
         <v>2869</v>
       </c>
       <c r="B2869">
-        <v>305.4181215201478</v>
+        <v>305.4181215201477</v>
       </c>
     </row>
     <row r="2870" spans="1:2">
@@ -23343,7 +23343,7 @@
         <v>2875</v>
       </c>
       <c r="B2875">
-        <v>381.5814230474582</v>
+        <v>381.5814230474581</v>
       </c>
     </row>
     <row r="2876" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>745.9888832293616</v>
+        <v>745.9888832293615</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23399,7 +23399,7 @@
         <v>2882</v>
       </c>
       <c r="B2882">
-        <v>799.1988610087154</v>
+        <v>799.1988610087153</v>
       </c>
     </row>
     <row r="2883" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>977.0841893449922</v>
+        <v>977.084189344992</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>607.7121057681657</v>
+        <v>607.7121057681655</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23455,7 +23455,7 @@
         <v>2889</v>
       </c>
       <c r="B2889">
-        <v>541.1615343089474</v>
+        <v>541.1615343089472</v>
       </c>
     </row>
     <row r="2890" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>389.7170750806972</v>
+        <v>389.7170750806971</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23535,7 +23535,7 @@
         <v>2899</v>
       </c>
       <c r="B2899">
-        <v>379.9079874167019</v>
+        <v>379.9079874167018</v>
       </c>
     </row>
     <row r="2900" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>686.5687301407738</v>
+        <v>686.5687301407737</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23719,7 +23719,7 @@
         <v>2922</v>
       </c>
       <c r="B2922">
-        <v>283.8161483314587</v>
+        <v>283.8161483314586</v>
       </c>
     </row>
     <row r="2923" spans="1:2">
@@ -23735,7 +23735,7 @@
         <v>2924</v>
       </c>
       <c r="B2924">
-        <v>361.5324332926356</v>
+        <v>361.5324332926355</v>
       </c>
     </row>
     <row r="2925" spans="1:2">
@@ -23775,7 +23775,7 @@
         <v>2929</v>
       </c>
       <c r="B2929">
-        <v>514.6825659658948</v>
+        <v>514.6825659658947</v>
       </c>
     </row>
     <row r="2930" spans="1:2">
@@ -23823,7 +23823,7 @@
         <v>2935</v>
       </c>
       <c r="B2935">
-        <v>601.7129416067679</v>
+        <v>601.7129416067678</v>
       </c>
     </row>
     <row r="2936" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>531.7861917821709</v>
+        <v>531.7861917821708</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>364.7620761386836</v>
+        <v>364.7620761386835</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>313.2841481978183</v>
+        <v>313.2841481978182</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>441.8045907819781</v>
+        <v>441.804590781978</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>804.9137462626117</v>
+        <v>804.9137462626115</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24015,7 +24015,7 @@
         <v>2959</v>
       </c>
       <c r="B2959">
-        <v>869.4391968446801</v>
+        <v>869.4391968446799</v>
       </c>
     </row>
     <row r="2960" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>694.9622846880347</v>
+        <v>694.9622846880346</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24063,7 +24063,7 @@
         <v>2965</v>
       </c>
       <c r="B2965">
-        <v>438.4108281542797</v>
+        <v>438.4108281542796</v>
       </c>
     </row>
     <row r="2966" spans="1:2">
@@ -24111,7 +24111,7 @@
         <v>2971</v>
       </c>
       <c r="B2971">
-        <v>682.609340408459</v>
+        <v>682.6093404084589</v>
       </c>
     </row>
     <row r="2972" spans="1:2">
@@ -24127,7 +24127,7 @@
         <v>2973</v>
       </c>
       <c r="B2973">
-        <v>835.6217296935474</v>
+        <v>835.6217296935473</v>
       </c>
     </row>
     <row r="2974" spans="1:2">
@@ -24207,7 +24207,7 @@
         <v>2983</v>
       </c>
       <c r="B2983">
-        <v>923.0536126573866</v>
+        <v>923.0536126573865</v>
       </c>
     </row>
     <row r="2984" spans="1:2">
@@ -24223,7 +24223,7 @@
         <v>2985</v>
       </c>
       <c r="B2985">
-        <v>719.419062864324</v>
+        <v>719.4190628643239</v>
       </c>
     </row>
     <row r="2986" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>583.1205149140922</v>
+        <v>583.120514914092</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>816.3611010327238</v>
+        <v>816.3611010327237</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -24503,7 +24503,7 @@
         <v>3020</v>
       </c>
       <c r="B3020">
-        <v>638.4757726964471</v>
+        <v>638.4757726964469</v>
       </c>
     </row>
     <row r="3021" spans="1:2">
@@ -24535,7 +24535,7 @@
         <v>3024</v>
       </c>
       <c r="B3024">
-        <v>652.0215161033744</v>
+        <v>652.0215161033743</v>
       </c>
     </row>
     <row r="3025" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>721.2800639598236</v>
+        <v>721.2800639598235</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24751,7 +24751,7 @@
         <v>3051</v>
       </c>
       <c r="B3051">
-        <v>619.900930266091</v>
+        <v>619.9009302660909</v>
       </c>
     </row>
     <row r="3052" spans="1:2">
@@ -24767,7 +24767,7 @@
         <v>3053</v>
       </c>
       <c r="B3053">
-        <v>605.4495973497001</v>
+        <v>605.4495973497</v>
       </c>
     </row>
     <row r="3054" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>476.5745388087601</v>
+        <v>476.57453880876</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>514.9961519772625</v>
+        <v>514.9961519772623</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24927,7 +24927,7 @@
         <v>3073</v>
       </c>
       <c r="B3073">
-        <v>648.703951945728</v>
+        <v>648.7039519457279</v>
       </c>
     </row>
     <row r="3074" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>586.0395024591592</v>
+        <v>586.0395024591591</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25015,7 +25015,7 @@
         <v>3084</v>
       </c>
       <c r="B3084">
-        <v>572.0922517292657</v>
+        <v>572.0922517292656</v>
       </c>
     </row>
     <row r="3085" spans="1:2">
@@ -25079,7 +25079,7 @@
         <v>3092</v>
       </c>
       <c r="B3092">
-        <v>524.0608392030579</v>
+        <v>524.0608392030578</v>
       </c>
     </row>
     <row r="3093" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>262.4741291540622</v>
+        <v>262.4741291540621</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>252.0232159153987</v>
+        <v>252.0232159153986</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>311.4905534412109</v>
+        <v>311.4905534412108</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>365.2544354836347</v>
+        <v>365.2544354836346</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25287,7 +25287,7 @@
         <v>3118</v>
       </c>
       <c r="B3118">
-        <v>494.733220364217</v>
+        <v>494.7332203642169</v>
       </c>
     </row>
     <row r="3119" spans="1:2">
@@ -25343,7 +25343,7 @@
         <v>3125</v>
       </c>
       <c r="B3125">
-        <v>838.5377865282278</v>
+        <v>838.5377865282277</v>
       </c>
     </row>
     <row r="3126" spans="1:2">
@@ -25359,7 +25359,7 @@
         <v>3127</v>
       </c>
       <c r="B3127">
-        <v>648.7479126015272</v>
+        <v>648.7479126015271</v>
       </c>
     </row>
     <row r="3128" spans="1:2">
@@ -25463,7 +25463,7 @@
         <v>3140</v>
       </c>
       <c r="B3140">
-        <v>446.0980814983668</v>
+        <v>446.0980814983667</v>
       </c>
     </row>
     <row r="3141" spans="1:2">
@@ -25487,7 +25487,7 @@
         <v>3143</v>
       </c>
       <c r="B3143">
-        <v>578.5222303174957</v>
+        <v>578.5222303174955</v>
       </c>
     </row>
     <row r="3144" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>716.8283148825577</v>
+        <v>716.8283148825576</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>810.9275639759425</v>
+        <v>810.9275639759423</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>792.1006804523377</v>
+        <v>792.1006804523375</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25551,7 +25551,7 @@
         <v>3151</v>
       </c>
       <c r="B3151">
-        <v>719.017555541358</v>
+        <v>719.0175555413579</v>
       </c>
     </row>
     <row r="3152" spans="1:2">
@@ -25703,7 +25703,7 @@
         <v>3170</v>
       </c>
       <c r="B3170">
-        <v>601.1033538463523</v>
+        <v>601.1033538463522</v>
       </c>
     </row>
     <row r="3171" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>592.7215221406378</v>
+        <v>592.7215221406377</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25751,7 +25751,7 @@
         <v>3176</v>
       </c>
       <c r="B3176">
-        <v>505.7556221282702</v>
+        <v>505.7556221282701</v>
       </c>
     </row>
     <row r="3177" spans="1:2">
@@ -25759,7 +25759,7 @@
         <v>3177</v>
       </c>
       <c r="B3177">
-        <v>403.9017133519063</v>
+        <v>403.9017133519062</v>
       </c>
     </row>
     <row r="3178" spans="1:2">
@@ -25799,7 +25799,7 @@
         <v>3182</v>
       </c>
       <c r="B3182">
-        <v>311.0743925663118</v>
+        <v>311.0743925663117</v>
       </c>
     </row>
     <row r="3183" spans="1:2">
@@ -25831,7 +25831,7 @@
         <v>3186</v>
       </c>
       <c r="B3186">
-        <v>406.8412158696796</v>
+        <v>406.8412158696795</v>
       </c>
     </row>
     <row r="3187" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>636.5415038412822</v>
+        <v>636.5415038412821</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>736.9388495554992</v>
+        <v>736.9388495554991</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>748.116578970043</v>
+        <v>748.1165789700428</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>736.9241960035662</v>
+        <v>736.9241960035661</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -26007,7 +26007,7 @@
         <v>3208</v>
       </c>
       <c r="B3208">
-        <v>458.8701173632282</v>
+        <v>458.8701173632281</v>
       </c>
     </row>
     <row r="3209" spans="1:2">
@@ -26023,7 +26023,7 @@
         <v>3210</v>
       </c>
       <c r="B3210">
-        <v>516.9743814882265</v>
+        <v>516.9743814882264</v>
       </c>
     </row>
     <row r="3211" spans="1:2">
@@ -26039,7 +26039,7 @@
         <v>3212</v>
       </c>
       <c r="B3212">
-        <v>616.5364747422587</v>
+        <v>616.5364747422586</v>
       </c>
     </row>
     <row r="3213" spans="1:2">
@@ -26063,7 +26063,7 @@
         <v>3215</v>
       </c>
       <c r="B3215">
-        <v>739.0225846403814</v>
+        <v>739.0225846403813</v>
       </c>
     </row>
     <row r="3216" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>793.3814008912877</v>
+        <v>793.3814008912876</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26095,7 +26095,7 @@
         <v>3219</v>
       </c>
       <c r="B3219">
-        <v>836.4247443394795</v>
+        <v>836.4247443394794</v>
       </c>
     </row>
     <row r="3220" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>814.8869537082572</v>
+        <v>814.8869537082571</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>584.8935946979933</v>
+        <v>584.8935946979932</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26239,7 +26239,7 @@
         <v>3237</v>
       </c>
       <c r="B3237">
-        <v>605.1506648902655</v>
+        <v>605.1506648902654</v>
       </c>
     </row>
     <row r="3238" spans="1:2">
@@ -26263,7 +26263,7 @@
         <v>3240</v>
       </c>
       <c r="B3240">
-        <v>737.5191302120487</v>
+        <v>737.5191302120486</v>
       </c>
     </row>
     <row r="3241" spans="1:2">
@@ -26271,7 +26271,7 @@
         <v>3241</v>
       </c>
       <c r="B3241">
-        <v>870.1542901790137</v>
+        <v>870.1542901790136</v>
       </c>
     </row>
     <row r="3242" spans="1:2">
@@ -26279,7 +26279,7 @@
         <v>3242</v>
       </c>
       <c r="B3242">
-        <v>817.2549677006409</v>
+        <v>817.2549677006408</v>
       </c>
     </row>
     <row r="3243" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>821.6158647559217</v>
+        <v>821.6158647559216</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26303,7 +26303,7 @@
         <v>3245</v>
       </c>
       <c r="B3245">
-        <v>883.8641533675915</v>
+        <v>883.8641533675914</v>
       </c>
     </row>
     <row r="3246" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>735.9717151279168</v>
+        <v>735.9717151279167</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>333.2598701929756</v>
+        <v>333.2598701929755</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26487,7 +26487,7 @@
         <v>3268</v>
       </c>
       <c r="B3268">
-        <v>537.1142232650342</v>
+        <v>537.1142232650341</v>
       </c>
     </row>
     <row r="3269" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>152.1413821581869</v>
+        <v>152.1413821581868</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -26679,7 +26679,7 @@
         <v>3292</v>
       </c>
       <c r="B3292">
-        <v>606.6394657666651</v>
+        <v>606.639465766665</v>
       </c>
     </row>
     <row r="3293" spans="1:2">
@@ -26711,7 +26711,7 @@
         <v>3296</v>
       </c>
       <c r="B3296">
-        <v>680.16805865641</v>
+        <v>680.1680586564099</v>
       </c>
     </row>
     <row r="3297" spans="1:2">
@@ -26735,7 +26735,7 @@
         <v>3299</v>
       </c>
       <c r="B3299">
-        <v>659.7615222344206</v>
+        <v>659.7615222344205</v>
       </c>
     </row>
     <row r="3300" spans="1:2">
@@ -26759,7 +26759,7 @@
         <v>3302</v>
       </c>
       <c r="B3302">
-        <v>632.3740336715179</v>
+        <v>632.3740336715177</v>
       </c>
     </row>
     <row r="3303" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>699.3407660056353</v>
+        <v>699.3407660056351</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>781.9340461211756</v>
+        <v>781.9340461211755</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26911,7 +26911,7 @@
         <v>3321</v>
       </c>
       <c r="B3321">
-        <v>833.9981161393636</v>
+        <v>833.9981161393634</v>
       </c>
     </row>
     <row r="3322" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>589.5973848685079</v>
+        <v>589.5973848685078</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>1394.153584463953</v>
+        <v>1394.153584463952</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>837.3772252151289</v>
+        <v>837.3772252151288</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>610.8215894883625</v>
+        <v>610.8215894883624</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>726.9509885579206</v>
+        <v>726.9509885579205</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>706.5591056878642</v>
+        <v>706.5591056878641</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>468.8198791257809</v>
+        <v>468.8198791257808</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27583,7 +27583,7 @@
         <v>3405</v>
       </c>
       <c r="B3405">
-        <v>741.208894588795</v>
+        <v>741.2088945887949</v>
       </c>
     </row>
     <row r="3406" spans="1:2">
@@ -27591,7 +27591,7 @@
         <v>3406</v>
       </c>
       <c r="B3406">
-        <v>886.9882906397214</v>
+        <v>886.9882906397213</v>
       </c>
     </row>
     <row r="3407" spans="1:2">
@@ -27663,7 +27663,7 @@
         <v>3415</v>
       </c>
       <c r="B3415">
-        <v>723.4810274601703</v>
+        <v>723.4810274601701</v>
       </c>
     </row>
     <row r="3416" spans="1:2">
@@ -27775,7 +27775,7 @@
         <v>3429</v>
       </c>
       <c r="B3429">
-        <v>517.4813943851107</v>
+        <v>517.4813943851105</v>
       </c>
     </row>
     <row r="3430" spans="1:2">
@@ -27847,7 +27847,7 @@
         <v>3438</v>
       </c>
       <c r="B3438">
-        <v>679.7812048853771</v>
+        <v>679.781204885377</v>
       </c>
     </row>
     <row r="3439" spans="1:2">
@@ -27951,7 +27951,7 @@
         <v>3451</v>
       </c>
       <c r="B3451">
-        <v>205.2048244182101</v>
+        <v>205.20482441821</v>
       </c>
     </row>
     <row r="3452" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>329.3971939034191</v>
+        <v>329.397193903419</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -28127,7 +28127,7 @@
         <v>3473</v>
       </c>
       <c r="B3473">
-        <v>148.4574792022138</v>
+        <v>148.4574792022137</v>
       </c>
     </row>
     <row r="3474" spans="1:2">
@@ -28207,7 +28207,7 @@
         <v>3483</v>
       </c>
       <c r="B3483">
-        <v>724.2576657126228</v>
+        <v>724.2576657126227</v>
       </c>
     </row>
     <row r="3484" spans="1:2">
@@ -28271,7 +28271,7 @@
         <v>3491</v>
       </c>
       <c r="B3491">
-        <v>473.7464032856781</v>
+        <v>473.746403285678</v>
       </c>
     </row>
     <row r="3492" spans="1:2">
@@ -28327,7 +28327,7 @@
         <v>3498</v>
       </c>
       <c r="B3498">
-        <v>351.1811642071169</v>
+        <v>351.1811642071168</v>
       </c>
     </row>
     <row r="3499" spans="1:2">
@@ -28351,7 +28351,7 @@
         <v>3501</v>
       </c>
       <c r="B3501">
-        <v>513.7154315383124</v>
+        <v>513.7154315383123</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -28375,7 +28375,7 @@
         <v>3504</v>
       </c>
       <c r="B3504">
-        <v>620.3170911409901</v>
+        <v>620.31709114099</v>
       </c>
     </row>
     <row r="3505" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>707.7489741048292</v>
+        <v>707.7489741048291</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28423,7 +28423,7 @@
         <v>3510</v>
       </c>
       <c r="B3510">
-        <v>688.8019314553733</v>
+        <v>688.8019314553732</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -28431,7 +28431,7 @@
         <v>3511</v>
       </c>
       <c r="B3511">
-        <v>619.2004904836904</v>
+        <v>619.2004904836903</v>
       </c>
     </row>
     <row r="3512" spans="1:2">
@@ -28463,7 +28463,7 @@
         <v>3515</v>
       </c>
       <c r="B3515">
-        <v>342.3685180745702</v>
+        <v>342.3685180745701</v>
       </c>
     </row>
     <row r="3516" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>323.711615753389</v>
+        <v>323.7116157533889</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28551,7 +28551,7 @@
         <v>3526</v>
       </c>
       <c r="B3526">
-        <v>559.4257214383224</v>
+        <v>559.4257214383223</v>
       </c>
     </row>
     <row r="3527" spans="1:2">
@@ -28639,7 +28639,7 @@
         <v>3537</v>
       </c>
       <c r="B3537">
-        <v>471.1791009870047</v>
+        <v>471.1791009870046</v>
       </c>
     </row>
     <row r="3538" spans="1:2">
@@ -28687,7 +28687,7 @@
         <v>3543</v>
       </c>
       <c r="B3543">
-        <v>264.2392960199195</v>
+        <v>264.2392960199194</v>
       </c>
     </row>
     <row r="3544" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>385.578912014799</v>
+        <v>385.5789120147989</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28863,7 +28863,7 @@
         <v>3565</v>
       </c>
       <c r="B3565">
-        <v>172.1147595850349</v>
+        <v>172.1147595850348</v>
       </c>
     </row>
     <row r="3566" spans="1:2">
@@ -28943,7 +28943,7 @@
         <v>3575</v>
       </c>
       <c r="B3575">
-        <v>475.8389305017201</v>
+        <v>475.83893050172</v>
       </c>
     </row>
     <row r="3576" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>239.7391433299084</v>
+        <v>239.7391433299083</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29047,7 +29047,7 @@
         <v>3588</v>
       </c>
       <c r="B3588">
-        <v>194.5997558132106</v>
+        <v>194.5997558132105</v>
       </c>
     </row>
     <row r="3589" spans="1:2">
@@ -29127,7 +29127,7 @@
         <v>3598</v>
       </c>
       <c r="B3598">
-        <v>339.8979292186551</v>
+        <v>339.897929218655</v>
       </c>
     </row>
     <row r="3599" spans="1:2">
@@ -29319,7 +29319,7 @@
         <v>3622</v>
       </c>
       <c r="B3622">
-        <v>222.2038238736841</v>
+        <v>222.203823873684</v>
       </c>
     </row>
     <row r="3623" spans="1:2">
@@ -29463,7 +29463,7 @@
         <v>3640</v>
       </c>
       <c r="B3640">
-        <v>75.91507035756426</v>
+        <v>75.91507035756425</v>
       </c>
     </row>
     <row r="3641" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>510.3920059598927</v>
+        <v>510.3920059598926</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29639,7 +29639,7 @@
         <v>3662</v>
       </c>
       <c r="B3662">
-        <v>426.3245785198858</v>
+        <v>426.3245785198857</v>
       </c>
     </row>
     <row r="3663" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>439.3046948221968</v>
+        <v>439.3046948221967</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>698.4762064415843</v>
+        <v>698.4762064415842</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29711,7 +29711,7 @@
         <v>3671</v>
       </c>
       <c r="B3671">
-        <v>724.5390139097377</v>
+        <v>724.5390139097376</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29727,7 +29727,7 @@
         <v>3673</v>
       </c>
       <c r="B3673">
-        <v>766.5566087226148</v>
+        <v>766.5566087226147</v>
       </c>
     </row>
     <row r="3674" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>888.3276252864038</v>
+        <v>888.3276252864036</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>446.6637086029832</v>
+        <v>446.6637086029831</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>387.2230405416891</v>
+        <v>387.223040541689</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29871,7 +29871,7 @@
         <v>3691</v>
       </c>
       <c r="B3691">
-        <v>479.0832268997012</v>
+        <v>479.0832268997011</v>
       </c>
     </row>
     <row r="3692" spans="1:2">
@@ -29903,7 +29903,7 @@
         <v>3695</v>
       </c>
       <c r="B3695">
-        <v>752.2078506697553</v>
+        <v>752.2078506697552</v>
       </c>
     </row>
     <row r="3696" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>795.5530572877683</v>
+        <v>795.5530572877682</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -30407,7 +30407,7 @@
         <v>3758</v>
       </c>
       <c r="B3758">
-        <v>90.98243859722136</v>
+        <v>90.98243859722132</v>
       </c>
     </row>
     <row r="3759" spans="1:2">
@@ -30439,7 +30439,7 @@
         <v>3762</v>
       </c>
       <c r="B3762">
-        <v>137.8316025534694</v>
+        <v>137.8316025534693</v>
       </c>
     </row>
     <row r="3763" spans="1:2">
@@ -30487,7 +30487,7 @@
         <v>3768</v>
       </c>
       <c r="B3768">
-        <v>363.9883685966177</v>
+        <v>363.9883685966176</v>
       </c>
     </row>
     <row r="3769" spans="1:2">
@@ -30519,7 +30519,7 @@
         <v>3772</v>
       </c>
       <c r="B3772">
-        <v>396.0649937781019</v>
+        <v>396.0649937781018</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>97.78197976520322</v>
+        <v>97.7819797652032</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30631,7 +30631,7 @@
         <v>3786</v>
       </c>
       <c r="B3786">
-        <v>92.52633682888931</v>
+        <v>92.5263368288893</v>
       </c>
     </row>
     <row r="3787" spans="1:2">
@@ -30767,7 +30767,7 @@
         <v>3803</v>
       </c>
       <c r="B3803">
-        <v>136.0400592941326</v>
+        <v>136.0400592941325</v>
       </c>
     </row>
     <row r="3804" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>163.1804889714438</v>
+        <v>163.1804889714437</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30935,7 +30935,7 @@
         <v>3824</v>
       </c>
       <c r="B3824">
-        <v>607.6798679539129</v>
+        <v>607.6798679539128</v>
       </c>
     </row>
     <row r="3825" spans="1:2">
@@ -30951,7 +30951,7 @@
         <v>3826</v>
       </c>
       <c r="B3826">
-        <v>516.5435670613944</v>
+        <v>516.5435670613942</v>
       </c>
     </row>
     <row r="3827" spans="1:2">
@@ -30983,7 +30983,7 @@
         <v>3830</v>
       </c>
       <c r="B3830">
-        <v>389.4855489601547</v>
+        <v>389.4855489601546</v>
       </c>
     </row>
     <row r="3831" spans="1:2">
@@ -31015,7 +31015,7 @@
         <v>3834</v>
       </c>
       <c r="B3834">
-        <v>344.4375996075193</v>
+        <v>344.4375996075192</v>
       </c>
     </row>
     <row r="3835" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>673.1871065154968</v>
+        <v>673.1871065154967</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31207,7 +31207,7 @@
         <v>3858</v>
       </c>
       <c r="B3858">
-        <v>354.1499738287563</v>
+        <v>354.1499738287562</v>
       </c>
     </row>
     <row r="3859" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>489.9561624340371</v>
+        <v>489.956162434037</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31463,7 +31463,7 @@
         <v>3890</v>
       </c>
       <c r="B3890">
-        <v>528.3162306844206</v>
+        <v>528.3162306844205</v>
       </c>
     </row>
     <row r="3891" spans="1:2">
@@ -31671,7 +31671,7 @@
         <v>3916</v>
       </c>
       <c r="B3916">
-        <v>476.2550913766192</v>
+        <v>476.2550913766191</v>
       </c>
     </row>
     <row r="3917" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>75.66801147197275</v>
+        <v>75.66801147197273</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>192.0177999626042</v>
+        <v>192.0177999626041</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31935,7 +31935,7 @@
         <v>3949</v>
       </c>
       <c r="B3949">
-        <v>61.77439274215435</v>
+        <v>61.77439274215434</v>
       </c>
     </row>
     <row r="3950" spans="1:2">
@@ -32111,7 +32111,7 @@
         <v>3971</v>
       </c>
       <c r="B3971">
-        <v>56.32239220993734</v>
+        <v>56.32239220993733</v>
       </c>
     </row>
     <row r="3972" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>128.7080080489031</v>
+        <v>128.708008048903</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32199,7 +32199,7 @@
         <v>3982</v>
       </c>
       <c r="B3982">
-        <v>163.3434364689395</v>
+        <v>163.3434364689394</v>
       </c>
     </row>
     <row r="3983" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>431.4826288003255</v>
+        <v>431.4826288003254</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>391.6806510397282</v>
+        <v>391.6806510397281</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>145.3875600722362</v>
+        <v>145.3875600722361</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32407,7 +32407,7 @@
         <v>4008</v>
       </c>
       <c r="B4008">
-        <v>503.3143403762212</v>
+        <v>503.3143403762211</v>
       </c>
     </row>
     <row r="4009" spans="1:2">
@@ -32439,7 +32439,7 @@
         <v>4012</v>
       </c>
       <c r="B4012">
-        <v>530.7868195403357</v>
+        <v>530.7868195403356</v>
       </c>
     </row>
     <row r="4013" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>409.2004377309034</v>
+        <v>409.2004377309033</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>88.53383006920581</v>
+        <v>88.53383006920579</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32719,7 +32719,7 @@
         <v>4047</v>
       </c>
       <c r="B4047">
-        <v>69.91561312512786</v>
+        <v>69.91561312512785</v>
       </c>
     </row>
     <row r="4048" spans="1:2">
@@ -33175,7 +33175,7 @@
         <v>4104</v>
       </c>
       <c r="B4104">
-        <v>374.2370628186049</v>
+        <v>374.2370628186048</v>
       </c>
     </row>
     <row r="4105" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>88.19474687747463</v>
+        <v>88.19474687747461</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33519,7 +33519,7 @@
         <v>4147</v>
       </c>
       <c r="B4147">
-        <v>107.0269056797754</v>
+        <v>107.0269056797753</v>
       </c>
     </row>
     <row r="4148" spans="1:2">
@@ -33591,7 +33591,7 @@
         <v>4156</v>
       </c>
       <c r="B4156">
-        <v>501.7376181882232</v>
+        <v>501.7376181882231</v>
       </c>
     </row>
     <row r="4157" spans="1:2">
@@ -33767,7 +33767,7 @@
         <v>4178</v>
       </c>
       <c r="B4178">
-        <v>553.6199841624411</v>
+        <v>553.619984162441</v>
       </c>
     </row>
     <row r="4179" spans="1:2">
@@ -33799,7 +33799,7 @@
         <v>4182</v>
       </c>
       <c r="B4182">
-        <v>511.6492807157499</v>
+        <v>511.6492807157498</v>
       </c>
     </row>
     <row r="4183" spans="1:2">
@@ -34079,7 +34079,7 @@
         <v>4217</v>
       </c>
       <c r="B4217">
-        <v>79.42342376137923</v>
+        <v>79.42342376137921</v>
       </c>
     </row>
     <row r="4218" spans="1:2">
@@ -34111,7 +34111,7 @@
         <v>4221</v>
       </c>
       <c r="B4221">
-        <v>215.3963697876584</v>
+        <v>215.3963697876583</v>
       </c>
     </row>
     <row r="4222" spans="1:2">
@@ -34151,7 +34151,7 @@
         <v>4226</v>
       </c>
       <c r="B4226">
-        <v>526.4112689331218</v>
+        <v>526.4112689331217</v>
       </c>
     </row>
     <row r="4227" spans="1:2">
@@ -34511,7 +34511,7 @@
         <v>4271</v>
       </c>
       <c r="B4271">
-        <v>401.8326318189572</v>
+        <v>401.8326318189571</v>
       </c>
     </row>
     <row r="4272" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>491.9959368631201</v>
+        <v>491.99593686312</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>289.4691955961974</v>
+        <v>289.4691955961973</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34711,7 +34711,7 @@
         <v>4296</v>
       </c>
       <c r="B4296">
-        <v>337.9402146803973</v>
+        <v>337.9402146803972</v>
       </c>
     </row>
     <row r="4297" spans="1:2">
@@ -34831,7 +34831,7 @@
         <v>4311</v>
       </c>
       <c r="B4311">
-        <v>62.00591886269681</v>
+        <v>62.0059188626968</v>
       </c>
     </row>
     <row r="4312" spans="1:2">
@@ -34879,7 +34879,7 @@
         <v>4317</v>
       </c>
       <c r="B4317">
-        <v>324.1658758633141</v>
+        <v>324.165875863314</v>
       </c>
     </row>
     <row r="4318" spans="1:2">
@@ -34895,7 +34895,7 @@
         <v>4319</v>
       </c>
       <c r="B4319">
-        <v>429.8971144811676</v>
+        <v>429.8971144811675</v>
       </c>
     </row>
     <row r="4320" spans="1:2">
@@ -34919,7 +34919,7 @@
         <v>4322</v>
       </c>
       <c r="B4322">
-        <v>578.3727640877784</v>
+        <v>578.3727640877783</v>
       </c>
     </row>
     <row r="4323" spans="1:2">
@@ -34951,7 +34951,7 @@
         <v>4326</v>
       </c>
       <c r="B4326">
-        <v>573.7598259392488</v>
+        <v>573.7598259392487</v>
       </c>
     </row>
     <row r="4327" spans="1:2">
@@ -35063,7 +35063,7 @@
         <v>4340</v>
       </c>
       <c r="B4340">
-        <v>503.1297056218646</v>
+        <v>503.1297056218645</v>
       </c>
     </row>
     <row r="4341" spans="1:2">
@@ -35079,7 +35079,7 @@
         <v>4342</v>
       </c>
       <c r="B4342">
-        <v>544.5113362808465</v>
+        <v>544.5113362808464</v>
       </c>
     </row>
     <row r="4343" spans="1:2">
@@ -35087,7 +35087,7 @@
         <v>4343</v>
       </c>
       <c r="B4343">
-        <v>563.9214311713874</v>
+        <v>563.9214311713873</v>
       </c>
     </row>
     <row r="4344" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>580.9488585176116</v>
+        <v>580.9488585176115</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35111,7 +35111,7 @@
         <v>4346</v>
       </c>
       <c r="B4346">
-        <v>585.3683697806247</v>
+        <v>585.3683697806246</v>
       </c>
     </row>
     <row r="4347" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>548.5439937728266</v>
+        <v>548.5439937728265</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>387.0677128911986</v>
+        <v>387.0677128911985</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>278.348321963154</v>
+        <v>278.3483219631539</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>98.78545500157966</v>
+        <v>98.78545500157963</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>68.91418938602204</v>
+        <v>68.91418938602203</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>92.21773302517892</v>
+        <v>92.2177330251789</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>308.8792904867383</v>
+        <v>308.8792904867382</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>148.4111739781053</v>
+        <v>148.4111739781052</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>93.75430448088036</v>
+        <v>93.75430448088034</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35647,7 +35647,7 @@
         <v>4413</v>
       </c>
       <c r="B4413">
-        <v>292.1965146819799</v>
+        <v>292.1965146819798</v>
       </c>
     </row>
     <row r="4414" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>531.1297126555695</v>
+        <v>531.1297126555694</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35751,7 +35751,7 @@
         <v>4426</v>
       </c>
       <c r="B4426">
-        <v>480.6687412188591</v>
+        <v>480.668741218859</v>
       </c>
     </row>
     <row r="4427" spans="1:2">
@@ -35879,7 +35879,7 @@
         <v>4442</v>
       </c>
       <c r="B4442">
-        <v>519.1929292508929</v>
+        <v>519.1929292508928</v>
       </c>
     </row>
     <row r="4443" spans="1:2">
@@ -35887,7 +35887,7 @@
         <v>4443</v>
       </c>
       <c r="B4443">
-        <v>516.5582206133274</v>
+        <v>516.5582206133273</v>
       </c>
     </row>
     <row r="4444" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>222.0188960482888</v>
+        <v>222.0188960482887</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>170.4621319980236</v>
+        <v>170.4621319980235</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36095,7 +36095,7 @@
         <v>4469</v>
       </c>
       <c r="B4469">
-        <v>431.1104285812256</v>
+        <v>431.1104285812255</v>
       </c>
     </row>
     <row r="4470" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>84.98239522270762</v>
+        <v>84.98239522270761</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36183,7 +36183,7 @@
         <v>4480</v>
       </c>
       <c r="B4480">
-        <v>54.01914691709783</v>
+        <v>54.01914691709782</v>
       </c>
     </row>
     <row r="4481" spans="1:2">
@@ -36231,7 +36231,7 @@
         <v>4486</v>
       </c>
       <c r="B4486">
-        <v>219.6417968537066</v>
+        <v>219.6417968537065</v>
       </c>
     </row>
     <row r="4487" spans="1:2">
@@ -36399,7 +36399,7 @@
         <v>4507</v>
       </c>
       <c r="B4507">
-        <v>232.7362108610955</v>
+        <v>232.7362108610954</v>
       </c>
     </row>
     <row r="4508" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>481.040941437959</v>
+        <v>481.0409414379589</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36455,7 +36455,7 @@
         <v>4514</v>
       </c>
       <c r="B4514">
-        <v>503.1736662776638</v>
+        <v>503.1736662776637</v>
       </c>
     </row>
     <row r="4515" spans="1:2">
@@ -36479,7 +36479,7 @@
         <v>4517</v>
       </c>
       <c r="B4517">
-        <v>510.7642061789926</v>
+        <v>510.7642061789925</v>
       </c>
     </row>
     <row r="4518" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>219.9413154552185</v>
+        <v>219.9413154552184</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36567,7 +36567,7 @@
         <v>4528</v>
       </c>
       <c r="B4528">
-        <v>293.6747650009877</v>
+        <v>293.6747650009876</v>
       </c>
     </row>
     <row r="4529" spans="1:2">
@@ -36599,7 +36599,7 @@
         <v>4532</v>
       </c>
       <c r="B4532">
-        <v>371.6023541810394</v>
+        <v>371.6023541810393</v>
       </c>
     </row>
     <row r="4533" spans="1:2">
@@ -36647,7 +36647,7 @@
         <v>4538</v>
       </c>
       <c r="B4538">
-        <v>423.4231752371385</v>
+        <v>423.4231752371384</v>
       </c>
     </row>
     <row r="4539" spans="1:2">
@@ -36791,7 +36791,7 @@
         <v>4556</v>
       </c>
       <c r="B4556">
-        <v>216.738928215766</v>
+        <v>216.7389282157659</v>
       </c>
     </row>
     <row r="4557" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>383.0116097161256</v>
+        <v>383.0116097161255</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>205.063857248614</v>
+        <v>205.0638572486139</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -37039,7 +37039,7 @@
         <v>4587</v>
       </c>
       <c r="B4587">
-        <v>560.2580431881206</v>
+        <v>560.2580431881205</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>130.9315380192267</v>
+        <v>130.9315380192266</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37167,7 +37167,7 @@
         <v>4603</v>
       </c>
       <c r="B4603">
-        <v>116.081042348179</v>
+        <v>116.0810423481789</v>
       </c>
     </row>
     <row r="4604" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>246.1576921476305</v>
+        <v>246.1576921476304</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37199,7 +37199,7 @@
         <v>4607</v>
       </c>
       <c r="B4607">
-        <v>303.3197328833326</v>
+        <v>303.3197328833325</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37239,7 +37239,7 @@
         <v>4612</v>
       </c>
       <c r="B4612">
-        <v>469.6082402197799</v>
+        <v>469.6082402197798</v>
       </c>
     </row>
     <row r="4613" spans="1:2">
@@ -37655,7 +37655,7 @@
         <v>4664</v>
       </c>
       <c r="B4664">
-        <v>413.0484604685269</v>
+        <v>413.0484604685268</v>
       </c>
     </row>
     <row r="4665" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>265.8215865576521</v>
+        <v>265.821586557652</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37783,7 +37783,7 @@
         <v>4680</v>
       </c>
       <c r="B4680">
-        <v>521.9624505662426</v>
+        <v>521.9624505662425</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37975,7 +37975,7 @@
         <v>4704</v>
       </c>
       <c r="B4704">
-        <v>506.7755093428117</v>
+        <v>506.7755093428116</v>
       </c>
     </row>
     <row r="4705" spans="1:2">
@@ -38183,7 +38183,7 @@
         <v>4730</v>
       </c>
       <c r="B4730">
-        <v>447.7363486044837</v>
+        <v>447.7363486044836</v>
       </c>
     </row>
     <row r="4731" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>454.5824880676127</v>
+        <v>454.5824880676126</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>185.8999420305486</v>
+        <v>185.8999420305485</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38319,7 +38319,7 @@
         <v>4747</v>
       </c>
       <c r="B4747">
-        <v>87.07404322563364</v>
+        <v>87.07404322563363</v>
       </c>
     </row>
     <row r="4748" spans="1:2">
@@ -38391,7 +38391,7 @@
         <v>4756</v>
       </c>
       <c r="B4756">
-        <v>348.4262964437002</v>
+        <v>348.4262964437001</v>
       </c>
     </row>
     <row r="4757" spans="1:2">
@@ -38583,7 +38583,7 @@
         <v>4780</v>
       </c>
       <c r="B4780">
-        <v>295.400953418703</v>
+        <v>295.4009534187029</v>
       </c>
     </row>
     <row r="4781" spans="1:2">
@@ -38591,7 +38591,7 @@
         <v>4781</v>
       </c>
       <c r="B4781">
-        <v>285.7413319844251</v>
+        <v>285.741331984425</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38607,7 +38607,7 @@
         <v>4783</v>
       </c>
       <c r="B4783">
-        <v>240.4668387189045</v>
+        <v>240.4668387189044</v>
       </c>
     </row>
     <row r="4784" spans="1:2">
@@ -38615,7 +38615,7 @@
         <v>4784</v>
       </c>
       <c r="B4784">
-        <v>191.8020996781494</v>
+        <v>191.8020996781493</v>
       </c>
     </row>
     <row r="4785" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>50.71506402722982</v>
+        <v>50.71506402722981</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38727,7 +38727,7 @@
         <v>4798</v>
       </c>
       <c r="B4798">
-        <v>172.7108660776721</v>
+        <v>172.710866077672</v>
       </c>
     </row>
     <row r="4799" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>291.2123821341551</v>
+        <v>291.212382134155</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38959,7 +38959,7 @@
         <v>4827</v>
       </c>
       <c r="B4827">
-        <v>424.1441299922454</v>
+        <v>424.1441299922453</v>
       </c>
     </row>
     <row r="4828" spans="1:2">
@@ -39007,7 +39007,7 @@
         <v>4833</v>
       </c>
       <c r="B4833">
-        <v>312.1909932236115</v>
+        <v>312.1909932236114</v>
       </c>
     </row>
     <row r="4834" spans="1:2">
@@ -39055,7 +39055,7 @@
         <v>4839</v>
       </c>
       <c r="B4839">
-        <v>85.81032090692592</v>
+        <v>85.81032090692591</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>89.45055627813849</v>
+        <v>89.45055627813848</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39119,7 +39119,7 @@
         <v>4847</v>
       </c>
       <c r="B4847">
-        <v>304.3689272017402</v>
+        <v>304.3689272017401</v>
       </c>
     </row>
     <row r="4848" spans="1:2">
@@ -39143,7 +39143,7 @@
         <v>4850</v>
       </c>
       <c r="B4850">
-        <v>423.0275293349457</v>
+        <v>423.0275293349456</v>
       </c>
     </row>
     <row r="4851" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>136.7276039508321</v>
+        <v>136.727603950832</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39255,7 +39255,7 @@
         <v>4864</v>
       </c>
       <c r="B4864">
-        <v>165.7688923849008</v>
+        <v>165.7688923849007</v>
       </c>
     </row>
     <row r="4865" spans="1:2">
@@ -39327,7 +39327,7 @@
         <v>4873</v>
       </c>
       <c r="B4873">
-        <v>387.6245478646552</v>
+        <v>387.6245478646551</v>
       </c>
     </row>
     <row r="4874" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>115.2583919426566</v>
+        <v>115.2583919426565</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39639,7 +39639,7 @@
         <v>4912</v>
       </c>
       <c r="B4912">
-        <v>46.2389900537551</v>
+        <v>46.23899005375509</v>
       </c>
     </row>
     <row r="4913" spans="1:2">
@@ -39647,7 +39647,7 @@
         <v>4913</v>
       </c>
       <c r="B4913">
-        <v>49.05891958775456</v>
+        <v>49.05891958775455</v>
       </c>
     </row>
     <row r="4914" spans="1:2">
@@ -39727,7 +39727,7 @@
         <v>4923</v>
       </c>
       <c r="B4923">
-        <v>322.2521219808555</v>
+        <v>322.2521219808554</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39735,7 +39735,7 @@
         <v>4924</v>
       </c>
       <c r="B4924">
-        <v>313.8878745374607</v>
+        <v>313.8878745374606</v>
       </c>
     </row>
     <row r="4925" spans="1:2">
@@ -39983,7 +39983,7 @@
         <v>4955</v>
       </c>
       <c r="B4955">
-        <v>109.4318466230304</v>
+        <v>109.4318466230303</v>
       </c>
     </row>
     <row r="4956" spans="1:2">
@@ -40055,7 +40055,7 @@
         <v>4964</v>
       </c>
       <c r="B4964">
-        <v>262.7504951435199</v>
+        <v>262.7504951435198</v>
       </c>
     </row>
     <row r="4965" spans="1:2">
@@ -40079,7 +40079,7 @@
         <v>4967</v>
       </c>
       <c r="B4967">
-        <v>369.1317653251243</v>
+        <v>369.1317653251242</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40087,7 +40087,7 @@
         <v>4968</v>
       </c>
       <c r="B4968">
-        <v>402.6590921479822</v>
+        <v>402.6590921479821</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40111,7 +40111,7 @@
         <v>4971</v>
       </c>
       <c r="B4971">
-        <v>445.9281002959432</v>
+        <v>445.9281002959431</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>436.1043590800149</v>
+        <v>436.1043590800148</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40159,7 +40159,7 @@
         <v>4977</v>
       </c>
       <c r="B4977">
-        <v>288.409450720398</v>
+        <v>288.4094507203979</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40215,7 +40215,7 @@
         <v>4984</v>
       </c>
       <c r="B4984">
-        <v>142.4647626036666</v>
+        <v>142.4647626036665</v>
       </c>
     </row>
     <row r="4985" spans="1:2">
@@ -40287,7 +40287,7 @@
         <v>4993</v>
       </c>
       <c r="B4993">
-        <v>639.5337591460145</v>
+        <v>639.5337591460144</v>
       </c>
     </row>
     <row r="4994" spans="1:2">
@@ -40327,7 +40327,7 @@
         <v>4998</v>
       </c>
       <c r="B4998">
-        <v>633.267900339435</v>
+        <v>633.2679003394348</v>
       </c>
     </row>
     <row r="4999" spans="1:2">
@@ -40367,7 +40367,7 @@
         <v>5003</v>
       </c>
       <c r="B5003">
-        <v>318.9257656920492</v>
+        <v>318.9257656920491</v>
       </c>
     </row>
     <row r="5004" spans="1:2">
@@ -40375,7 +40375,7 @@
         <v>5004</v>
       </c>
       <c r="B5004">
-        <v>318.0699982591581</v>
+        <v>318.069998259158</v>
       </c>
     </row>
     <row r="5005" spans="1:2">
@@ -40383,7 +40383,7 @@
         <v>5005</v>
       </c>
       <c r="B5005">
-        <v>317.6977980400582</v>
+        <v>317.6977980400581</v>
       </c>
     </row>
     <row r="5006" spans="1:2">
@@ -40455,7 +40455,7 @@
         <v>5014</v>
       </c>
       <c r="B5014">
-        <v>500.427590645407</v>
+        <v>500.4275906454069</v>
       </c>
     </row>
     <row r="5015" spans="1:2">
@@ -40479,7 +40479,7 @@
         <v>5017</v>
       </c>
       <c r="B5017">
-        <v>593.4073083711054</v>
+        <v>593.4073083711053</v>
       </c>
     </row>
     <row r="5018" spans="1:2">
@@ -40647,7 +40647,7 @@
         <v>5038</v>
       </c>
       <c r="B5038">
-        <v>559.5605341161066</v>
+        <v>559.5605341161065</v>
       </c>
     </row>
     <row r="5039" spans="1:2">
@@ -40719,7 +40719,7 @@
         <v>5047</v>
       </c>
       <c r="B5047">
-        <v>439.8468762437203</v>
+        <v>439.8468762437202</v>
       </c>
     </row>
     <row r="5048" spans="1:2">
@@ -40863,7 +40863,7 @@
         <v>5065</v>
       </c>
       <c r="B5065">
-        <v>478.1014389201857</v>
+        <v>478.1014389201856</v>
       </c>
     </row>
     <row r="5066" spans="1:2">
@@ -40871,7 +40871,7 @@
         <v>5066</v>
       </c>
       <c r="B5066">
-        <v>504.8998546953791</v>
+        <v>504.899854695379</v>
       </c>
     </row>
     <row r="5067" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>514.5184461842445</v>
+        <v>514.5184461842443</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -40951,7 +40951,7 @@
         <v>5076</v>
       </c>
       <c r="B5076">
-        <v>175.8974274810369</v>
+        <v>175.8974274810368</v>
       </c>
     </row>
     <row r="5077" spans="1:2">
@@ -41239,7 +41239,7 @@
         <v>5112</v>
       </c>
       <c r="B5112">
-        <v>371.6609683887717</v>
+        <v>371.6609683887716</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41263,7 +41263,7 @@
         <v>5115</v>
       </c>
       <c r="B5115">
-        <v>401.8326318189572</v>
+        <v>401.8326318189571</v>
       </c>
     </row>
     <row r="5116" spans="1:2">
@@ -41335,7 +41335,7 @@
         <v>5124</v>
       </c>
       <c r="B5124">
-        <v>86.82903583731276</v>
+        <v>86.82903583731274</v>
       </c>
     </row>
     <row r="5125" spans="1:2">
@@ -41407,7 +41407,7 @@
         <v>5133</v>
       </c>
       <c r="B5133">
-        <v>263.1056972423774</v>
+        <v>263.1056972423773</v>
       </c>
     </row>
     <row r="5134" spans="1:2">
@@ -41463,7 +41463,7 @@
         <v>5140</v>
       </c>
       <c r="B5140">
-        <v>397.0028211018182</v>
+        <v>397.0028211018181</v>
       </c>
     </row>
     <row r="5141" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>214.5848560816051</v>
+        <v>214.584856081605</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41671,7 +41671,7 @@
         <v>5166</v>
       </c>
       <c r="B5166">
-        <v>510.981078747602</v>
+        <v>510.9810787476019</v>
       </c>
     </row>
     <row r="5167" spans="1:2">
@@ -41679,7 +41679,7 @@
         <v>5167</v>
       </c>
       <c r="B5167">
-        <v>429.5249142620677</v>
+        <v>429.5249142620676</v>
       </c>
     </row>
     <row r="5168" spans="1:2">
@@ -41823,7 +41823,7 @@
         <v>5185</v>
       </c>
       <c r="B5185">
-        <v>439.4600224726873</v>
+        <v>439.4600224726872</v>
       </c>
     </row>
     <row r="5186" spans="1:2">
@@ -41871,7 +41871,7 @@
         <v>5191</v>
       </c>
       <c r="B5191">
-        <v>441.3063700162538</v>
+        <v>441.3063700162537</v>
       </c>
     </row>
     <row r="5192" spans="1:2">
@@ -41887,7 +41887,7 @@
         <v>5193</v>
       </c>
       <c r="B5193">
-        <v>390.7281701640788</v>
+        <v>390.7281701640787</v>
       </c>
     </row>
     <row r="5194" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>290.3988169308312</v>
+        <v>290.3988169308311</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>629.8448306078704</v>
+        <v>629.8448306078703</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42415,7 +42415,7 @@
         <v>5259</v>
       </c>
       <c r="B5259">
-        <v>644.7885228692124</v>
+        <v>644.7885228692123</v>
       </c>
     </row>
     <row r="5260" spans="1:2">
@@ -42447,7 +42447,7 @@
         <v>5263</v>
       </c>
       <c r="B5263">
-        <v>475.0124701726951</v>
+        <v>475.012470172695</v>
       </c>
     </row>
     <row r="5264" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>111.9777547358815</v>
+        <v>111.9777547358814</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42567,7 +42567,7 @@
         <v>5278</v>
       </c>
       <c r="B5278">
-        <v>446.0394672906345</v>
+        <v>446.0394672906344</v>
       </c>
     </row>
     <row r="5279" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>99.2007366633628</v>
+        <v>99.20073666336278</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42959,7 +42959,7 @@
         <v>5327</v>
       </c>
       <c r="B5327">
-        <v>379.09618063961</v>
+        <v>379.0961806396099</v>
       </c>
     </row>
     <row r="5328" spans="1:2">
@@ -42975,7 +42975,7 @@
         <v>5329</v>
       </c>
       <c r="B5329">
-        <v>536.205703045184</v>
+        <v>536.2057030451839</v>
       </c>
     </row>
     <row r="5330" spans="1:2">
@@ -43015,7 +43015,7 @@
         <v>5334</v>
       </c>
       <c r="B5334">
-        <v>553.9335701738088</v>
+        <v>553.9335701738087</v>
       </c>
     </row>
     <row r="5335" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>494.2730988335187</v>
+        <v>494.2730988335186</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43223,7 +43223,7 @@
         <v>5360</v>
       </c>
       <c r="B5360">
-        <v>498.6193423368665</v>
+        <v>498.6193423368664</v>
       </c>
     </row>
     <row r="5361" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>276.6156859825881</v>
+        <v>276.615685982588</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43311,7 +43311,7 @@
         <v>5371</v>
       </c>
       <c r="B5371">
-        <v>336.6975934764732</v>
+        <v>336.6975934764731</v>
       </c>
     </row>
     <row r="5372" spans="1:2">
@@ -43343,7 +43343,7 @@
         <v>5375</v>
       </c>
       <c r="B5375">
-        <v>488.4234009018383</v>
+        <v>488.4234009018382</v>
       </c>
     </row>
     <row r="5376" spans="1:2">
@@ -43415,7 +43415,7 @@
         <v>5384</v>
       </c>
       <c r="B5384">
-        <v>214.9928109674217</v>
+        <v>214.9928109674216</v>
       </c>
     </row>
     <row r="5385" spans="1:2">
@@ -43687,7 +43687,7 @@
         <v>5418</v>
       </c>
       <c r="B5418">
-        <v>83.94785445623307</v>
+        <v>83.94785445623306</v>
       </c>
     </row>
     <row r="5419" spans="1:2">
@@ -43751,7 +43751,7 @@
         <v>5426</v>
       </c>
       <c r="B5426">
-        <v>410.8592198097266</v>
+        <v>410.8592198097265</v>
       </c>
     </row>
     <row r="5427" spans="1:2">
@@ -43847,7 +43847,7 @@
         <v>5438</v>
       </c>
       <c r="B5438">
-        <v>175.7608563770207</v>
+        <v>175.7608563770206</v>
       </c>
     </row>
     <row r="5439" spans="1:2">
@@ -43983,7 +43983,7 @@
         <v>5455</v>
       </c>
       <c r="B5455">
-        <v>482.5209501831988</v>
+        <v>482.5209501831987</v>
       </c>
     </row>
     <row r="5456" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>323.1752957526387</v>
+        <v>323.1752957526386</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44087,7 +44087,7 @@
         <v>5468</v>
       </c>
       <c r="B5468">
-        <v>430.9990615865343</v>
+        <v>430.9990615865342</v>
       </c>
     </row>
     <row r="5469" spans="1:2">
@@ -44111,7 +44111,7 @@
         <v>5471</v>
       </c>
       <c r="B5471">
-        <v>489.4344959852199</v>
+        <v>489.4344959852198</v>
       </c>
     </row>
     <row r="5472" spans="1:2">
@@ -44127,7 +44127,7 @@
         <v>5473</v>
       </c>
       <c r="B5473">
-        <v>524.878507400923</v>
+        <v>524.8785074009229</v>
       </c>
     </row>
     <row r="5474" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>165.5027838817963</v>
+        <v>165.5027838817962</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44287,7 +44287,7 @@
         <v>5493</v>
       </c>
       <c r="B5493">
-        <v>297.6781153891017</v>
+        <v>297.6781153891016</v>
       </c>
     </row>
     <row r="5494" spans="1:2">
@@ -44335,7 +44335,7 @@
         <v>5499</v>
       </c>
       <c r="B5499">
-        <v>526.14457428794</v>
+        <v>526.1445742879399</v>
       </c>
     </row>
     <row r="5500" spans="1:2">
@@ -44375,7 +44375,7 @@
         <v>5504</v>
       </c>
       <c r="B5504">
-        <v>448.8969099175826</v>
+        <v>448.8969099175825</v>
       </c>
     </row>
     <row r="5505" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>377.519458451612</v>
+        <v>377.5194584516119</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44415,7 +44415,7 @@
         <v>5509</v>
       </c>
       <c r="B5509">
-        <v>325.8393114940704</v>
+        <v>325.8393114940703</v>
       </c>
     </row>
     <row r="5510" spans="1:2">
@@ -44527,7 +44527,7 @@
         <v>5523</v>
       </c>
       <c r="B5523">
-        <v>654.8496516264564</v>
+        <v>654.8496516264563</v>
       </c>
     </row>
     <row r="5524" spans="1:2">
@@ -44591,7 +44591,7 @@
         <v>5531</v>
       </c>
       <c r="B5531">
-        <v>366.5644630264509</v>
+        <v>366.5644630264508</v>
       </c>
     </row>
     <row r="5532" spans="1:2">
@@ -44639,7 +44639,7 @@
         <v>5537</v>
       </c>
       <c r="B5537">
-        <v>350.6888048621658</v>
+        <v>350.6888048621657</v>
       </c>
     </row>
     <row r="5538" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>262.1271330442872</v>
+        <v>262.1271330442871</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44887,7 +44887,7 @@
         <v>5568</v>
       </c>
       <c r="B5568">
-        <v>354.5661347036554</v>
+        <v>354.5661347036553</v>
       </c>
     </row>
     <row r="5569" spans="1:2">
@@ -44903,7 +44903,7 @@
         <v>5570</v>
       </c>
       <c r="B5570">
-        <v>392.7298453581358</v>
+        <v>392.7298453581357</v>
       </c>
     </row>
     <row r="5571" spans="1:2">
@@ -44959,7 +44959,7 @@
         <v>5577</v>
       </c>
       <c r="B5577">
-        <v>293.1237914483044</v>
+        <v>293.1237914483043</v>
       </c>
     </row>
     <row r="5578" spans="1:2">
@@ -44999,7 +44999,7 @@
         <v>5582</v>
       </c>
       <c r="B5582">
-        <v>122.7234974394384</v>
+        <v>122.7234974394383</v>
       </c>
     </row>
     <row r="5583" spans="1:2">
@@ -45071,7 +45071,7 @@
         <v>5591</v>
       </c>
       <c r="B5591">
-        <v>373.1204621613052</v>
+        <v>373.1204621613051</v>
       </c>
     </row>
     <row r="5592" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>150.2246975653417</v>
+        <v>150.2246975653416</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45439,7 +45439,7 @@
         <v>5637</v>
       </c>
       <c r="B5637">
-        <v>440.523870343028</v>
+        <v>440.5238703430279</v>
       </c>
     </row>
     <row r="5638" spans="1:2">
@@ -45447,7 +45447,7 @@
         <v>5638</v>
       </c>
       <c r="B5638">
-        <v>504.4162874815879</v>
+        <v>504.4162874815878</v>
       </c>
     </row>
     <row r="5639" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>682.6239939603921</v>
+        <v>682.623993960392</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>136.5374008467409</v>
+        <v>136.5374008467408</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45623,7 +45623,7 @@
         <v>5660</v>
       </c>
       <c r="B5660">
-        <v>345.0413259471617</v>
+        <v>345.0413259471616</v>
       </c>
     </row>
     <row r="5661" spans="1:2">
@@ -45655,7 +45655,7 @@
         <v>5664</v>
       </c>
       <c r="B5664">
-        <v>648.2995139123753</v>
+        <v>648.2995139123752</v>
       </c>
     </row>
     <row r="5665" spans="1:2">
@@ -45695,7 +45695,7 @@
         <v>5669</v>
       </c>
       <c r="B5669">
-        <v>738.070103764732</v>
+        <v>738.0701037647319</v>
       </c>
     </row>
     <row r="5670" spans="1:2">
@@ -45703,7 +45703,7 @@
         <v>5670</v>
       </c>
       <c r="B5670">
-        <v>738.2019857321296</v>
+        <v>738.2019857321295</v>
       </c>
     </row>
     <row r="5671" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>303.1702666536153</v>
+        <v>303.1702666536152</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>250.4913335963158</v>
+        <v>250.4913335963157</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>636.3334234038326</v>
+        <v>636.3334234038325</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>551.9084492966589</v>
+        <v>551.9084492966588</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>274.6506446683638</v>
+        <v>274.6506446683637</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>438.3668674984805</v>
+        <v>438.3668674984804</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46255,7 +46255,7 @@
         <v>5739</v>
       </c>
       <c r="B5739">
-        <v>456.9505020599964</v>
+        <v>456.9505020599963</v>
       </c>
     </row>
     <row r="5740" spans="1:2">
@@ -46263,7 +46263,7 @@
         <v>5740</v>
       </c>
       <c r="B5740">
-        <v>446.7604220457414</v>
+        <v>446.7604220457413</v>
       </c>
     </row>
     <row r="5741" spans="1:2">
@@ -46295,7 +46295,7 @@
         <v>5744</v>
       </c>
       <c r="B5744">
-        <v>259.1202241876218</v>
+        <v>259.1202241876217</v>
       </c>
     </row>
     <row r="5745" spans="1:2">
@@ -46383,7 +46383,7 @@
         <v>5755</v>
       </c>
       <c r="B5755">
-        <v>182.5861877964048</v>
+        <v>182.5861877964047</v>
       </c>
     </row>
     <row r="5756" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>227.2335090391901</v>
+        <v>227.23350903919</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>206.4958023435133</v>
+        <v>206.4958023435132</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46623,7 +46623,7 @@
         <v>5785</v>
       </c>
       <c r="B5785">
-        <v>603.9461429213674</v>
+        <v>603.9461429213673</v>
       </c>
     </row>
     <row r="5786" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>638.2530387070644</v>
+        <v>638.2530387070643</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>654.1199047401897</v>
+        <v>654.1199047401896</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46783,7 +46783,7 @@
         <v>5805</v>
       </c>
       <c r="B5805">
-        <v>387.8033211982386</v>
+        <v>387.8033211982385</v>
       </c>
     </row>
     <row r="5806" spans="1:2">
@@ -46831,7 +46831,7 @@
         <v>5811</v>
       </c>
       <c r="B5811">
-        <v>591.666466401457</v>
+        <v>591.6664664014569</v>
       </c>
     </row>
     <row r="5812" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>138.9628567627022</v>
+        <v>138.9628567627021</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -46967,7 +46967,7 @@
         <v>5828</v>
       </c>
       <c r="B5828">
-        <v>264.5147827962612</v>
+        <v>264.5147827962611</v>
       </c>
     </row>
     <row r="5829" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>293.0229750110049</v>
+        <v>293.0229750110048</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -46999,7 +46999,7 @@
         <v>5832</v>
       </c>
       <c r="B5832">
-        <v>475.331917604836</v>
+        <v>475.3319176048359</v>
       </c>
     </row>
     <row r="5833" spans="1:2">
@@ -47047,7 +47047,7 @@
         <v>5838</v>
       </c>
       <c r="B5838">
-        <v>542.4862154036966</v>
+        <v>542.4862154036965</v>
       </c>
     </row>
     <row r="5839" spans="1:2">
@@ -47079,7 +47079,7 @@
         <v>5842</v>
       </c>
       <c r="B5842">
-        <v>403.7669006741221</v>
+        <v>403.766900674122</v>
       </c>
     </row>
     <row r="5843" spans="1:2">
@@ -47191,7 +47191,7 @@
         <v>5856</v>
       </c>
       <c r="B5856">
-        <v>526.2324955995384</v>
+        <v>526.2324955995383</v>
       </c>
     </row>
     <row r="5857" spans="1:2">
@@ -47199,7 +47199,7 @@
         <v>5857</v>
       </c>
       <c r="B5857">
-        <v>547.3834324597277</v>
+        <v>547.3834324597276</v>
       </c>
     </row>
     <row r="5858" spans="1:2">
@@ -47399,7 +47399,7 @@
         <v>5882</v>
       </c>
       <c r="B5882">
-        <v>544.0658683020813</v>
+        <v>544.0658683020812</v>
       </c>
     </row>
     <row r="5883" spans="1:2">
@@ -47431,7 +47431,7 @@
         <v>5886</v>
       </c>
       <c r="B5886">
-        <v>530.0131119982698</v>
+        <v>530.0131119982697</v>
       </c>
     </row>
     <row r="5887" spans="1:2">
@@ -47535,7 +47535,7 @@
         <v>5899</v>
       </c>
       <c r="B5899">
-        <v>511.6492807157499</v>
+        <v>511.6492807157498</v>
       </c>
     </row>
     <row r="5900" spans="1:2">
@@ -47615,7 +47615,7 @@
         <v>5909</v>
       </c>
       <c r="B5909">
-        <v>737.0414244190307</v>
+        <v>737.0414244190306</v>
       </c>
     </row>
     <row r="5910" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>281.9176341430105</v>
+        <v>281.9176341430104</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -47735,7 +47735,7 @@
         <v>5924</v>
       </c>
       <c r="B5924">
-        <v>475.9502974964114</v>
+        <v>475.9502974964113</v>
       </c>
     </row>
     <row r="5925" spans="1:2">
@@ -47839,7 +47839,7 @@
         <v>5937</v>
       </c>
       <c r="B5937">
-        <v>425.7149907594702</v>
+        <v>425.7149907594701</v>
       </c>
     </row>
     <row r="5938" spans="1:2">
@@ -47943,7 +47943,7 @@
         <v>5950</v>
       </c>
       <c r="B5950">
-        <v>518.3899146049608</v>
+        <v>518.3899146049607</v>
       </c>
     </row>
     <row r="5951" spans="1:2">
@@ -48175,7 +48175,7 @@
         <v>5979</v>
       </c>
       <c r="B5979">
-        <v>658.8236949107043</v>
+        <v>658.8236949107041</v>
       </c>
     </row>
     <row r="5980" spans="1:2">
@@ -48391,7 +48391,7 @@
         <v>6006</v>
       </c>
       <c r="B6006">
-        <v>554.7365848197409</v>
+        <v>554.7365848197408</v>
       </c>
     </row>
     <row r="6007" spans="1:2">
@@ -48423,7 +48423,7 @@
         <v>6010</v>
       </c>
       <c r="B6010">
-        <v>403.8343070130142</v>
+        <v>403.8343070130141</v>
       </c>
     </row>
     <row r="6011" spans="1:2">
@@ -48583,7 +48583,7 @@
         <v>6030</v>
       </c>
       <c r="B6030">
-        <v>596.6369512171534</v>
+        <v>596.6369512171533</v>
       </c>
     </row>
     <row r="6031" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>582.4669664978774</v>
+        <v>582.4669664978773</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48631,7 +48631,7 @@
         <v>6036</v>
       </c>
       <c r="B6036">
-        <v>434.90569853189</v>
+        <v>434.9056985318899</v>
       </c>
     </row>
     <row r="6037" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>469.6082402197799</v>
+        <v>469.6082402197798</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48703,7 +48703,7 @@
         <v>6045</v>
       </c>
       <c r="B6045">
-        <v>556.4774267893893</v>
+        <v>556.4774267893891</v>
       </c>
     </row>
     <row r="6046" spans="1:2">
@@ -48767,7 +48767,7 @@
         <v>6053</v>
       </c>
       <c r="B6053">
-        <v>478.6670660248021</v>
+        <v>478.667066024802</v>
       </c>
     </row>
     <row r="6054" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>343.098264960837</v>
+        <v>343.0982649608369</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -49095,7 +49095,7 @@
         <v>6094</v>
       </c>
       <c r="B6094">
-        <v>466.5866778111814</v>
+        <v>466.5866778111813</v>
       </c>
     </row>
     <row r="6095" spans="1:2">
@@ -49119,7 +49119,7 @@
         <v>6097</v>
       </c>
       <c r="B6097">
-        <v>563.7573113897371</v>
+        <v>563.757311389737</v>
       </c>
     </row>
     <row r="6098" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>588.74747885639</v>
+        <v>588.7474788563899</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49151,7 +49151,7 @@
         <v>6101</v>
       </c>
       <c r="B6101">
-        <v>590.9074124113241</v>
+        <v>590.907412411324</v>
       </c>
     </row>
     <row r="6102" spans="1:2">
@@ -49167,7 +49167,7 @@
         <v>6103</v>
       </c>
       <c r="B6103">
-        <v>519.5065152622606</v>
+        <v>519.5065152622605</v>
       </c>
     </row>
     <row r="6104" spans="1:2">
@@ -49247,7 +49247,7 @@
         <v>6113</v>
       </c>
       <c r="B6113">
-        <v>166.2609586588132</v>
+        <v>166.2609586588131</v>
       </c>
     </row>
     <row r="6114" spans="1:2">
@@ -49351,7 +49351,7 @@
         <v>6126</v>
       </c>
       <c r="B6126">
-        <v>597.6040856447358</v>
+        <v>597.6040856447357</v>
       </c>
     </row>
     <row r="6127" spans="1:2">
@@ -49359,7 +49359,7 @@
         <v>6127</v>
       </c>
       <c r="B6127">
-        <v>540.5666001004648</v>
+        <v>540.5666001004647</v>
       </c>
     </row>
     <row r="6128" spans="1:2">
@@ -49383,7 +49383,7 @@
         <v>6130</v>
       </c>
       <c r="B6130">
-        <v>258.2474586344883</v>
+        <v>258.2474586344882</v>
       </c>
     </row>
     <row r="6131" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>334.2797574075171</v>
+        <v>334.279757407517</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49623,7 +49623,7 @@
         <v>6160</v>
       </c>
       <c r="B6160">
-        <v>140.0645107970302</v>
+        <v>140.0645107970301</v>
       </c>
     </row>
     <row r="6161" spans="1:2">
@@ -49719,7 +49719,7 @@
         <v>6172</v>
       </c>
       <c r="B6172">
-        <v>647.1096454954103</v>
+        <v>647.1096454954102</v>
       </c>
     </row>
     <row r="6173" spans="1:2">
@@ -49735,7 +49735,7 @@
         <v>6174</v>
       </c>
       <c r="B6174">
-        <v>644.7445622134132</v>
+        <v>644.7445622134131</v>
       </c>
     </row>
     <row r="6175" spans="1:2">
@@ -49775,7 +49775,7 @@
         <v>6179</v>
       </c>
       <c r="B6179">
-        <v>410.1822257104189</v>
+        <v>410.1822257104188</v>
       </c>
     </row>
     <row r="6180" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>403.6789793625237</v>
+        <v>403.6789793625236</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>731.6547787284352</v>
+        <v>731.6547787284351</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -49903,7 +49903,7 @@
         <v>6195</v>
       </c>
       <c r="B6195">
-        <v>740.2564137131457</v>
+        <v>740.2564137131455</v>
       </c>
     </row>
     <row r="6196" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>751.9558095765066</v>
+        <v>751.9558095765065</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49999,7 +49999,7 @@
         <v>6207</v>
       </c>
       <c r="B6207">
-        <v>257.6281995297969</v>
+        <v>257.6281995297968</v>
       </c>
     </row>
     <row r="6208" spans="1:2">
@@ -50055,7 +50055,7 @@
         <v>6214</v>
       </c>
       <c r="B6214">
-        <v>571.1837315094156</v>
+        <v>571.1837315094155</v>
       </c>
     </row>
     <row r="6215" spans="1:2">
@@ -50231,7 +50231,7 @@
         <v>6236</v>
       </c>
       <c r="B6236">
-        <v>324.3886098526967</v>
+        <v>324.3886098526966</v>
       </c>
     </row>
     <row r="6237" spans="1:2">
@@ -50271,7 +50271,7 @@
         <v>6241</v>
       </c>
       <c r="B6241">
-        <v>461.0945265466678</v>
+        <v>461.0945265466677</v>
       </c>
     </row>
     <row r="6242" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>422.8722016844552</v>
+        <v>422.8722016844551</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>219.3346584051895</v>
+        <v>219.3346584051894</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50463,7 +50463,7 @@
         <v>6265</v>
       </c>
       <c r="B6265">
-        <v>667.1586352502329</v>
+        <v>667.1586352502328</v>
       </c>
     </row>
     <row r="6266" spans="1:2">
@@ -50743,7 +50743,7 @@
         <v>6300</v>
       </c>
       <c r="B6300">
-        <v>167.2785013050454</v>
+        <v>167.2785013050453</v>
       </c>
     </row>
     <row r="6301" spans="1:2">
@@ -50855,7 +50855,7 @@
         <v>6314</v>
       </c>
       <c r="B6314">
-        <v>613.1280585626273</v>
+        <v>613.1280585626272</v>
       </c>
     </row>
     <row r="6315" spans="1:2">
@@ -50871,7 +50871,7 @@
         <v>6316</v>
       </c>
       <c r="B6316">
-        <v>656.7985740335544</v>
+        <v>656.7985740335542</v>
       </c>
     </row>
     <row r="6317" spans="1:2">
@@ -50887,7 +50887,7 @@
         <v>6318</v>
       </c>
       <c r="B6318">
-        <v>666.7424743753338</v>
+        <v>666.7424743753337</v>
       </c>
     </row>
     <row r="6319" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>629.7246714820193</v>
+        <v>629.7246714820192</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>320.0130592454828</v>
+        <v>320.0130592454827</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>732.1910987291855</v>
+        <v>732.1910987291853</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>711.693710285211</v>
+        <v>711.6937102852108</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>555.5864908318588</v>
+        <v>555.5864908318587</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>697.9691935447001</v>
+        <v>697.9691935447</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51231,7 +51231,7 @@
         <v>6361</v>
       </c>
       <c r="B6361">
-        <v>809.8109633186427</v>
+        <v>809.8109633186426</v>
       </c>
     </row>
     <row r="6362" spans="1:2">
@@ -51287,7 +51287,7 @@
         <v>6368</v>
       </c>
       <c r="B6368">
-        <v>739.7376779747151</v>
+        <v>739.737677974715</v>
       </c>
     </row>
     <row r="6369" spans="1:2">
@@ -51303,7 +51303,7 @@
         <v>6370</v>
       </c>
       <c r="B6370">
-        <v>587.5869175432911</v>
+        <v>587.586917543291</v>
       </c>
     </row>
     <row r="6371" spans="1:2">
@@ -51351,7 +51351,7 @@
         <v>6376</v>
       </c>
       <c r="B6376">
-        <v>531.724646864052</v>
+        <v>531.7246468640519</v>
       </c>
     </row>
     <row r="6377" spans="1:2">
@@ -51383,7 +51383,7 @@
         <v>6380</v>
       </c>
       <c r="B6380">
-        <v>641.8109211164132</v>
+        <v>641.8109211164131</v>
       </c>
     </row>
     <row r="6381" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>716.6495415489743</v>
+        <v>716.6495415489742</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>715.9051411107745</v>
+        <v>715.9051411107744</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51495,7 +51495,7 @@
         <v>6394</v>
       </c>
       <c r="B6394">
-        <v>595.3415772262703</v>
+        <v>595.3415772262701</v>
       </c>
     </row>
     <row r="6395" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>540.299905455283</v>
+        <v>540.2999054552829</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>480.4079079944505</v>
+        <v>480.4079079944504</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51535,7 +51535,7 @@
         <v>6399</v>
       </c>
       <c r="B6399">
-        <v>465.3528487384172</v>
+        <v>465.3528487384171</v>
       </c>
     </row>
     <row r="6400" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>484.0918109504236</v>
+        <v>484.0918109504235</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51639,7 +51639,7 @@
         <v>6412</v>
       </c>
       <c r="B6412">
-        <v>878.5624982782077</v>
+        <v>878.5624982782076</v>
       </c>
     </row>
     <row r="6413" spans="1:2">
@@ -51655,7 +51655,7 @@
         <v>6414</v>
       </c>
       <c r="B6414">
-        <v>769.3407835898976</v>
+        <v>769.3407835898975</v>
       </c>
     </row>
     <row r="6415" spans="1:2">
@@ -51671,7 +51671,7 @@
         <v>6416</v>
       </c>
       <c r="B6416">
-        <v>705.0849583633976</v>
+        <v>705.0849583633975</v>
       </c>
     </row>
     <row r="6417" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>751.9851166803727</v>
+        <v>751.9851166803726</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51831,7 +51831,7 @@
         <v>6436</v>
       </c>
       <c r="B6436">
-        <v>737.2495048564803</v>
+        <v>737.2495048564801</v>
       </c>
     </row>
     <row r="6437" spans="1:2">
@@ -51847,7 +51847,7 @@
         <v>6438</v>
       </c>
       <c r="B6438">
-        <v>704.2672901655325</v>
+        <v>704.2672901655324</v>
       </c>
     </row>
     <row r="6439" spans="1:2">
@@ -51975,7 +51975,7 @@
         <v>6454</v>
       </c>
       <c r="B6454">
-        <v>632.6583125790194</v>
+        <v>632.6583125790193</v>
       </c>
     </row>
     <row r="6455" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>877.6862158726103</v>
+        <v>877.6862158726102</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>716.9484740084089</v>
+        <v>716.9484740084088</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52039,7 +52039,7 @@
         <v>6462</v>
       </c>
       <c r="B6462">
-        <v>703.8188914763806</v>
+        <v>703.8188914763805</v>
       </c>
     </row>
     <row r="6463" spans="1:2">
@@ -52047,7 +52047,7 @@
         <v>6463</v>
       </c>
       <c r="B6463">
-        <v>665.0602466134177</v>
+        <v>665.0602466134176</v>
       </c>
     </row>
     <row r="6464" spans="1:2">
@@ -52079,7 +52079,7 @@
         <v>6467</v>
       </c>
       <c r="B6467">
-        <v>425.9523783007859</v>
+        <v>425.9523783007858</v>
       </c>
     </row>
     <row r="6468" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>610.6428161547791</v>
+        <v>610.642816154779</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>504.4016339296548</v>
+        <v>504.4016339296547</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>470.5460675434962</v>
+        <v>470.5460675434961</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52407,7 +52407,7 @@
         <v>6508</v>
       </c>
       <c r="B6508">
-        <v>733.1582331567679</v>
+        <v>733.1582331567678</v>
       </c>
     </row>
     <row r="6509" spans="1:2">
@@ -52423,7 +52423,7 @@
         <v>6510</v>
       </c>
       <c r="B6510">
-        <v>721.9336123760384</v>
+        <v>721.9336123760382</v>
       </c>
     </row>
     <row r="6511" spans="1:2">
@@ -52439,7 +52439,7 @@
         <v>6512</v>
       </c>
       <c r="B6512">
-        <v>648.1969390488439</v>
+        <v>648.1969390488438</v>
       </c>
     </row>
     <row r="6513" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>524.8492002970569</v>
+        <v>524.8492002970568</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52575,7 +52575,7 @@
         <v>6529</v>
       </c>
       <c r="B6529">
-        <v>706.9459594588972</v>
+        <v>706.9459594588971</v>
       </c>
     </row>
     <row r="6530" spans="1:2">
@@ -52607,7 +52607,7 @@
         <v>6533</v>
       </c>
       <c r="B6533">
-        <v>697.8812722331018</v>
+        <v>697.8812722331016</v>
       </c>
     </row>
     <row r="6534" spans="1:2">
@@ -52727,7 +52727,7 @@
         <v>6548</v>
       </c>
       <c r="B6548">
-        <v>594.9400699033042</v>
+        <v>594.9400699033041</v>
       </c>
     </row>
     <row r="6549" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>771.8406795496788</v>
+        <v>771.8406795496787</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52911,7 +52911,7 @@
         <v>6571</v>
       </c>
       <c r="B6571">
-        <v>607.4424804125972</v>
+        <v>607.4424804125971</v>
       </c>
     </row>
     <row r="6572" spans="1:2">
@@ -52967,7 +52967,7 @@
         <v>6578</v>
       </c>
       <c r="B6578">
-        <v>792.560801983036</v>
+        <v>792.5608019830358</v>
       </c>
     </row>
     <row r="6579" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>744.514735904895</v>
+        <v>744.5147359048949</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>694.5754309170018</v>
+        <v>694.5754309170017</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>215.0578727380045</v>
+        <v>215.0578727380044</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53111,7 +53111,7 @@
         <v>6596</v>
       </c>
       <c r="B6596">
-        <v>440.523870343028</v>
+        <v>440.5238703430279</v>
       </c>
     </row>
     <row r="6597" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>603.0376227015172</v>
+        <v>603.0376227015171</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>169.6840283903777</v>
+        <v>169.6840283903776</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53327,7 +53327,7 @@
         <v>6623</v>
       </c>
       <c r="B6623">
-        <v>457.0384233715948</v>
+        <v>457.0384233715947</v>
       </c>
     </row>
     <row r="6624" spans="1:2">
@@ -53343,7 +53343,7 @@
         <v>6625</v>
       </c>
       <c r="B6625">
-        <v>523.1669725351408</v>
+        <v>523.1669725351406</v>
       </c>
     </row>
     <row r="6626" spans="1:2">
@@ -53543,7 +53543,7 @@
         <v>6650</v>
       </c>
       <c r="B6650">
-        <v>659.6589473708891</v>
+        <v>659.658947370889</v>
       </c>
     </row>
     <row r="6651" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>679.0807651029764</v>
+        <v>679.0807651029763</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>655.6233591685224</v>
+        <v>655.6233591685223</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53591,7 +53591,7 @@
         <v>6656</v>
       </c>
       <c r="B6656">
-        <v>531.2498717814207</v>
+        <v>531.2498717814206</v>
       </c>
     </row>
     <row r="6657" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>196.4144516846017</v>
+        <v>196.4144516846016</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53783,7 +53783,7 @@
         <v>6680</v>
       </c>
       <c r="B6680">
-        <v>621.7619313615905</v>
+        <v>621.7619313615904</v>
       </c>
     </row>
     <row r="6681" spans="1:2">
@@ -53799,7 +53799,7 @@
         <v>6682</v>
       </c>
       <c r="B6682">
-        <v>734.1253675843503</v>
+        <v>734.1253675843502</v>
       </c>
     </row>
     <row r="6683" spans="1:2">
@@ -53831,7 +53831,7 @@
         <v>6686</v>
       </c>
       <c r="B6686">
-        <v>617.9520078589931</v>
+        <v>617.9520078589929</v>
       </c>
     </row>
     <row r="6687" spans="1:2">
@@ -53863,7 +53863,7 @@
         <v>6690</v>
       </c>
       <c r="B6690">
-        <v>727.516615662537</v>
+        <v>727.5166156625369</v>
       </c>
     </row>
     <row r="6691" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>704.6687974884985</v>
+        <v>704.6687974884984</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54023,7 +54023,7 @@
         <v>6710</v>
       </c>
       <c r="B6710">
-        <v>679.5438173440614</v>
+        <v>679.5438173440613</v>
       </c>
     </row>
     <row r="6711" spans="1:2">
@@ -54071,7 +54071,7 @@
         <v>6716</v>
       </c>
       <c r="B6716">
-        <v>1185.088428324496</v>
+        <v>1185.088428324495</v>
       </c>
     </row>
     <row r="6717" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>808.0261606931952</v>
+        <v>808.026160693195</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>738.2342235463824</v>
+        <v>738.2342235463823</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>1969.830094996047</v>
+        <v>1969.830094996046</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>633.8628345479175</v>
+        <v>633.8628345479174</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54447,7 +54447,7 @@
         <v>6763</v>
       </c>
       <c r="B6763">
-        <v>921.95166555202</v>
+        <v>921.9516655520198</v>
       </c>
     </row>
     <row r="6764" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>825.8859097892175</v>
+        <v>825.8859097892174</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54575,7 +54575,7 @@
         <v>6779</v>
       </c>
       <c r="B6779">
-        <v>494.1382861557345</v>
+        <v>494.1382861557344</v>
       </c>
     </row>
     <row r="6780" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>316.1122837209003</v>
+        <v>316.1122837209002</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54671,7 +54671,7 @@
         <v>6791</v>
       </c>
       <c r="B6791">
-        <v>705.0996119153307</v>
+        <v>705.0996119153306</v>
       </c>
     </row>
     <row r="6792" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>772.3037317907638</v>
+        <v>772.3037317907637</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>766.6181536407337</v>
+        <v>766.6181536407336</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54743,7 +54743,7 @@
         <v>6800</v>
       </c>
       <c r="B6800">
-        <v>570.4539846231488</v>
+        <v>570.4539846231487</v>
       </c>
     </row>
     <row r="6801" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>613.0108301471628</v>
+        <v>613.0108301471627</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>741.8653737153965</v>
+        <v>741.8653737153963</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>449.6266568038494</v>
+        <v>449.6266568038493</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -55039,7 +55039,7 @@
         <v>6837</v>
       </c>
       <c r="B6837">
-        <v>443.6362847736115</v>
+        <v>443.6362847736114</v>
       </c>
     </row>
     <row r="6838" spans="1:2">
@@ -55151,7 +55151,7 @@
         <v>6851</v>
       </c>
       <c r="B6851">
-        <v>389.635015189872</v>
+        <v>389.6350151898719</v>
       </c>
     </row>
     <row r="6852" spans="1:2">
@@ -55183,7 +55183,7 @@
         <v>6855</v>
       </c>
       <c r="B6855">
-        <v>273.7444690168229</v>
+        <v>273.7444690168228</v>
       </c>
     </row>
     <row r="6856" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>795.5970179435675</v>
+        <v>795.5970179435674</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55327,7 +55327,7 @@
         <v>6873</v>
       </c>
       <c r="B6873">
-        <v>618.8898351827094</v>
+        <v>618.8898351827092</v>
       </c>
     </row>
     <row r="6874" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>503.1062599387717</v>
+        <v>503.1062599387716</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>528.7030844554536</v>
+        <v>528.7030844554534</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>641.6028406789636</v>
+        <v>641.6028406789635</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55455,7 +55455,7 @@
         <v>6889</v>
       </c>
       <c r="B6889">
-        <v>670.3150103366156</v>
+        <v>670.3150103366155</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -55479,7 +55479,7 @@
         <v>6892</v>
       </c>
       <c r="B6892">
-        <v>846.2631391073409</v>
+        <v>846.2631391073407</v>
       </c>
     </row>
     <row r="6893" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>744.3506161232447</v>
+        <v>744.3506161232445</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>411.4336390455029</v>
+        <v>411.4336390455028</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55919,7 +55919,7 @@
         <v>6947</v>
       </c>
       <c r="B6947">
-        <v>582.7190075911261</v>
+        <v>582.719007591126</v>
       </c>
     </row>
     <row r="6948" spans="1:2">
@@ -55999,7 +55999,7 @@
         <v>6957</v>
       </c>
       <c r="B6957">
-        <v>836.0232370165135</v>
+        <v>836.0232370165133</v>
       </c>
     </row>
     <row r="6958" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>1397.368573758068</v>
+        <v>1397.368573758067</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56279,7 +56279,7 @@
         <v>6992</v>
       </c>
       <c r="B6992">
-        <v>954.6232249419868</v>
+        <v>954.6232249419866</v>
       </c>
     </row>
     <row r="6993" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>507.1477095619116</v>
+        <v>507.1477095619115</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56375,7 +56375,7 @@
         <v>7004</v>
       </c>
       <c r="B7004">
-        <v>793.9587508374506</v>
+        <v>793.9587508374505</v>
       </c>
     </row>
     <row r="7005" spans="1:2">
@@ -56463,7 +56463,7 @@
         <v>7015</v>
       </c>
       <c r="B7015">
-        <v>1130.999237429158</v>
+        <v>1130.999237429157</v>
       </c>
     </row>
     <row r="7016" spans="1:2">
@@ -56511,7 +56511,7 @@
         <v>7021</v>
       </c>
       <c r="B7021">
-        <v>456.5841632616697</v>
+        <v>456.5841632616696</v>
       </c>
     </row>
     <row r="7022" spans="1:2">
@@ -56575,7 +56575,7 @@
         <v>7029</v>
       </c>
       <c r="B7029">
-        <v>773.522907311595</v>
+        <v>773.5229073115948</v>
       </c>
     </row>
     <row r="7030" spans="1:2">
@@ -56583,7 +56583,7 @@
         <v>7030</v>
       </c>
       <c r="B7030">
-        <v>804.5737838577645</v>
+        <v>804.5737838577644</v>
       </c>
     </row>
     <row r="7031" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>858.3054280859355</v>
+        <v>858.3054280859354</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56663,7 +56663,7 @@
         <v>7040</v>
       </c>
       <c r="B7040">
-        <v>823.9809480379188</v>
+        <v>823.9809480379187</v>
       </c>
     </row>
     <row r="7041" spans="1:2">
@@ -56695,7 +56695,7 @@
         <v>7044</v>
       </c>
       <c r="B7044">
-        <v>435.1811853082317</v>
+        <v>435.1811853082316</v>
       </c>
     </row>
     <row r="7045" spans="1:2">
@@ -56775,7 +56775,7 @@
         <v>7054</v>
       </c>
       <c r="B7054">
-        <v>698.5494742012496</v>
+        <v>698.5494742012495</v>
       </c>
     </row>
     <row r="7055" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>688.8458921111725</v>
+        <v>688.8458921111724</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -57143,7 +57143,7 @@
         <v>7100</v>
       </c>
       <c r="B7100">
-        <v>368.9148927565149</v>
+        <v>368.9148927565148</v>
       </c>
     </row>
     <row r="7101" spans="1:2">
@@ -57215,7 +57215,7 @@
         <v>7109</v>
       </c>
       <c r="B7109">
-        <v>531.5019128746694</v>
+        <v>531.5019128746693</v>
       </c>
     </row>
     <row r="7110" spans="1:2">
@@ -57343,7 +57343,7 @@
         <v>7125</v>
       </c>
       <c r="B7125">
-        <v>352.7139257393157</v>
+        <v>352.7139257393156</v>
       </c>
     </row>
     <row r="7126" spans="1:2">
@@ -57375,7 +57375,7 @@
         <v>7129</v>
       </c>
       <c r="B7129">
-        <v>438.4401352581458</v>
+        <v>438.4401352581457</v>
       </c>
     </row>
     <row r="7130" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>313.0614142084357</v>
+        <v>313.0614142084356</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57583,7 +57583,7 @@
         <v>7155</v>
       </c>
       <c r="B7155">
-        <v>868.249328427715</v>
+        <v>868.2493284277149</v>
       </c>
     </row>
     <row r="7156" spans="1:2">
@@ -57615,7 +57615,7 @@
         <v>7159</v>
       </c>
       <c r="B7159">
-        <v>754.098158869121</v>
+        <v>754.0981588691209</v>
       </c>
     </row>
     <row r="7160" spans="1:2">
@@ -57679,7 +57679,7 @@
         <v>7167</v>
       </c>
       <c r="B7167">
-        <v>469.8837269961216</v>
+        <v>469.8837269961215</v>
       </c>
     </row>
     <row r="7168" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>512.9270704443134</v>
+        <v>512.9270704443132</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57703,7 +57703,7 @@
         <v>7170</v>
       </c>
       <c r="B7170">
-        <v>787.6782384789379</v>
+        <v>787.6782384789378</v>
       </c>
     </row>
     <row r="7171" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>969.4027974216784</v>
+        <v>969.4027974216782</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57911,7 +57911,7 @@
         <v>7196</v>
       </c>
       <c r="B7196">
-        <v>1223.609685646143</v>
+        <v>1223.609685646142</v>
       </c>
     </row>
     <row r="7197" spans="1:2">
@@ -57927,7 +57927,7 @@
         <v>7198</v>
       </c>
       <c r="B7198">
-        <v>1221.555257665127</v>
+        <v>1221.555257665126</v>
       </c>
     </row>
     <row r="7199" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>942.194082192359</v>
+        <v>942.1940821923588</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58119,7 +58119,7 @@
         <v>7222</v>
       </c>
       <c r="B7222">
-        <v>1969.49892472236</v>
+        <v>1969.498924722359</v>
       </c>
     </row>
     <row r="7223" spans="1:2">
@@ -58279,7 +58279,7 @@
         <v>7242</v>
       </c>
       <c r="B7242">
-        <v>798.8706214454147</v>
+        <v>798.8706214454146</v>
       </c>
     </row>
     <row r="7243" spans="1:2">
@@ -58375,7 +58375,7 @@
         <v>7254</v>
       </c>
       <c r="B7254">
-        <v>1210.720421365817</v>
+        <v>1210.720421365816</v>
       </c>
     </row>
     <row r="7255" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>488.1479141254966</v>
+        <v>488.1479141254965</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>389.8577491792546</v>
+        <v>389.8577491792545</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>664.8521661759681</v>
+        <v>664.852166175968</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>1385.821574834811</v>
+        <v>1385.82157483481</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58807,7 +58807,7 @@
         <v>7308</v>
       </c>
       <c r="B7308">
-        <v>623.8163593426066</v>
+        <v>623.8163593426065</v>
       </c>
     </row>
     <row r="7309" spans="1:2">
@@ -58815,7 +58815,7 @@
         <v>7309</v>
       </c>
       <c r="B7309">
-        <v>559.5605341161066</v>
+        <v>559.5605341161065</v>
       </c>
     </row>
     <row r="7310" spans="1:2">
@@ -58863,7 +58863,7 @@
         <v>7315</v>
       </c>
       <c r="B7315">
-        <v>703.3587699456823</v>
+        <v>703.3587699456822</v>
       </c>
     </row>
     <row r="7316" spans="1:2">
@@ -58959,7 +58959,7 @@
         <v>7327</v>
       </c>
       <c r="B7327">
-        <v>1400.167402177284</v>
+        <v>1400.167402177283</v>
       </c>
     </row>
     <row r="7328" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>412.1399402486767</v>
+        <v>412.1399402486766</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59039,7 +59039,7 @@
         <v>7337</v>
       </c>
       <c r="B7337">
-        <v>458.1696775808276</v>
+        <v>458.1696775808275</v>
       </c>
     </row>
     <row r="7338" spans="1:2">
@@ -59079,7 +59079,7 @@
         <v>7342</v>
       </c>
       <c r="B7342">
-        <v>966.6215532647822</v>
+        <v>966.6215532647821</v>
       </c>
     </row>
     <row r="7343" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>1480.070290157913</v>
+        <v>1480.070290157912</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>695.9616569298699</v>
+        <v>695.9616569298698</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>543.7962429465128</v>
+        <v>543.7962429465127</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>822.1052933904862</v>
+        <v>822.1052933904861</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59303,7 +59303,7 @@
         <v>7370</v>
       </c>
       <c r="B7370">
-        <v>971.7239200478762</v>
+        <v>971.723920047876</v>
       </c>
     </row>
     <row r="7371" spans="1:2">
@@ -59367,7 +59367,7 @@
         <v>7378</v>
       </c>
       <c r="B7378">
-        <v>726.1010825458027</v>
+        <v>726.1010825458026</v>
       </c>
     </row>
     <row r="7379" spans="1:2">
@@ -59543,7 +59543,7 @@
         <v>7400</v>
       </c>
       <c r="B7400">
-        <v>923.528387740018</v>
+        <v>923.5283877400178</v>
       </c>
     </row>
     <row r="7401" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>768.2710742987837</v>
+        <v>768.2710742987836</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59639,7 +59639,7 @@
         <v>7412</v>
       </c>
       <c r="B7412">
-        <v>1059.434220498444</v>
+        <v>1059.434220498443</v>
       </c>
     </row>
     <row r="7413" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>1904.838661462507</v>
+        <v>1904.838661462506</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>1784.304404681869</v>
+        <v>1784.304404681868</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>1987.807072507534</v>
+        <v>1987.807072507533</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -59911,7 +59911,7 @@
         <v>7446</v>
       </c>
       <c r="B7446">
-        <v>1970.155403848961</v>
+        <v>1970.15540384896</v>
       </c>
     </row>
     <row r="7447" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>675.1536131849144</v>
+        <v>675.1536131849143</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -59983,7 +59983,7 @@
         <v>7455</v>
       </c>
       <c r="B7455">
-        <v>533.4068746259682</v>
+        <v>533.406874625968</v>
       </c>
     </row>
     <row r="7456" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>975.8181224579752</v>
+        <v>975.8181224579751</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>710.1609487530121</v>
+        <v>710.160948753012</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60151,7 +60151,7 @@
         <v>7476</v>
       </c>
       <c r="B7476">
-        <v>612.7705118954605</v>
+        <v>612.7705118954603</v>
       </c>
     </row>
     <row r="7477" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>641.2306404598637</v>
+        <v>641.2306404598636</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>772.0956513533142</v>
+        <v>772.0956513533141</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>749.0544062937593</v>
+        <v>749.0544062937591</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60535,7 +60535,7 @@
         <v>7524</v>
       </c>
       <c r="B7524">
-        <v>663.4835244254197</v>
+        <v>663.4835244254195</v>
       </c>
     </row>
     <row r="7525" spans="1:2">
@@ -60559,7 +60559,7 @@
         <v>7527</v>
       </c>
       <c r="B7527">
-        <v>675.2122273926467</v>
+        <v>675.2122273926466</v>
       </c>
     </row>
     <row r="7528" spans="1:2">
@@ -60567,7 +60567,7 @@
         <v>7528</v>
       </c>
       <c r="B7528">
-        <v>719.2402895307406</v>
+        <v>719.2402895307405</v>
       </c>
     </row>
     <row r="7529" spans="1:2">
@@ -60575,7 +60575,7 @@
         <v>7529</v>
       </c>
       <c r="B7529">
-        <v>781.3537654646261</v>
+        <v>781.353765464626</v>
       </c>
     </row>
     <row r="7530" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>879.3977507383926</v>
+        <v>879.3977507383925</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>757.0904141738533</v>
+        <v>757.0904141738532</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60791,7 +60791,7 @@
         <v>7556</v>
       </c>
       <c r="B7556">
-        <v>908.6169332929288</v>
+        <v>908.6169332929286</v>
       </c>
     </row>
     <row r="7557" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>1175.443460442151</v>
+        <v>1175.44346044215</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>951.5870089814553</v>
+        <v>951.587008981455</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>969.9830780782278</v>
+        <v>969.9830780782275</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>903.0485835583632</v>
+        <v>903.048583558363</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61423,7 +61423,7 @@
         <v>7635</v>
       </c>
       <c r="B7635">
-        <v>1968.543513136324</v>
+        <v>1968.543513136323</v>
       </c>
     </row>
     <row r="7636" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>1955.507713336667</v>
+        <v>1955.507713336666</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>802.6395150025996</v>
+        <v>802.6395150025995</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>1349.770906369079</v>
+        <v>1349.770906369078</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -62311,7 +62311,7 @@
         <v>7746</v>
       </c>
       <c r="B7746">
-        <v>1951.967415189638</v>
+        <v>1951.967415189637</v>
       </c>
     </row>
     <row r="7747" spans="1:2">
@@ -62511,7 +62511,7 @@
         <v>7771</v>
       </c>
       <c r="B7771">
-        <v>1945.264880535453</v>
+        <v>1945.264880535452</v>
       </c>
     </row>
     <row r="7772" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>2016.859204570033</v>
+        <v>2016.859204570032</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>1960.571980884735</v>
+        <v>1960.571980884734</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>2005.253591439044</v>
+        <v>2005.253591439043</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62759,7 +62759,7 @@
         <v>7802</v>
       </c>
       <c r="B7802">
-        <v>2051.227645273849</v>
+        <v>2051.227645273848</v>
       </c>
     </row>
     <row r="7803" spans="1:2">
@@ -62871,7 +62871,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>1961.937691924897</v>
+        <v>1961.937691924896</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -62959,7 +62959,7 @@
         <v>7827</v>
       </c>
       <c r="B7827">
-        <v>2028.649452455379</v>
+        <v>2028.649452455378</v>
       </c>
     </row>
     <row r="7828" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>2026.211101413717</v>
+        <v>2026.211101413716</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>1952.354268960671</v>
+        <v>1952.35426896067</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63295,7 +63295,7 @@
         <v>7869</v>
       </c>
       <c r="B7869">
-        <v>2024.276832558552</v>
+        <v>2024.276832558551</v>
       </c>
     </row>
     <row r="7870" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>1386.595282376877</v>
+        <v>1386.595282376876</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63567,7 +63567,7 @@
         <v>7903</v>
       </c>
       <c r="B7903">
-        <v>1094.977876067292</v>
+        <v>1094.977876067291</v>
       </c>
     </row>
     <row r="7904" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>864.943487111615</v>
+        <v>864.9434871116149</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>824.0864536118369</v>
+        <v>824.0864536118368</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>711.9604049303928</v>
+        <v>711.9604049303927</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63959,7 +63959,7 @@
         <v>7952</v>
       </c>
       <c r="B7952">
-        <v>1963.42356209091</v>
+        <v>1963.423562090909</v>
       </c>
     </row>
     <row r="7953" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>1369.324606068564</v>
+        <v>1369.324606068563</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>681.4927397511593</v>
+        <v>681.4927397511592</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64015,7 +64015,7 @@
         <v>7959</v>
       </c>
       <c r="B7959">
-        <v>685.9737959322913</v>
+        <v>685.9737959322912</v>
       </c>
     </row>
     <row r="7960" spans="1:2">
@@ -64039,7 +64039,7 @@
         <v>7962</v>
       </c>
       <c r="B7962">
-        <v>964.136310856934</v>
+        <v>964.1363108569338</v>
       </c>
     </row>
     <row r="7963" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>971.1758772055796</v>
+        <v>971.1758772055794</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>1289.752888361622</v>
+        <v>1289.752888361621</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>942.6278273295778</v>
+        <v>942.6278273295776</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>729.1988434244531</v>
+        <v>729.198843424453</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>658.4075340358052</v>
+        <v>658.407534035805</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>563.6224987119529</v>
+        <v>563.6224987119527</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64599,7 +64599,7 @@
         <v>8032</v>
       </c>
       <c r="B8032">
-        <v>591.1008392968406</v>
+        <v>591.1008392968405</v>
       </c>
     </row>
     <row r="8033" spans="1:2">
@@ -64703,7 +64703,7 @@
         <v>8045</v>
       </c>
       <c r="B8045">
-        <v>2007.246474501941</v>
+        <v>2007.24647450194</v>
       </c>
     </row>
     <row r="8046" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>1978.604641893568</v>
+        <v>1978.604641893567</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64783,7 +64783,7 @@
         <v>8055</v>
       </c>
       <c r="B8055">
-        <v>680.9564197504091</v>
+        <v>680.9564197504089</v>
       </c>
     </row>
     <row r="8056" spans="1:2">
@@ -64807,7 +64807,7 @@
         <v>8058</v>
       </c>
       <c r="B8058">
-        <v>885.1272895442219</v>
+        <v>885.1272895442218</v>
       </c>
     </row>
     <row r="8059" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>1229.175104670322</v>
+        <v>1229.175104670321</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64919,7 +64919,7 @@
         <v>8072</v>
       </c>
       <c r="B8072">
-        <v>1218.932271869108</v>
+        <v>1218.932271869107</v>
       </c>
     </row>
     <row r="8073" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>678.992843791378</v>
+        <v>678.9928437913779</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>597.5894320928028</v>
+        <v>597.5894320928027</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -65023,7 +65023,7 @@
         <v>8085</v>
       </c>
       <c r="B8085">
-        <v>601.9649827000167</v>
+        <v>601.9649827000165</v>
       </c>
     </row>
     <row r="8086" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>667.6363410432509</v>
+        <v>667.6363410432508</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>492.5088111807774</v>
+        <v>492.5088111807773</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65199,7 +65199,7 @@
         <v>8107</v>
       </c>
       <c r="B8107">
-        <v>425.7970506502954</v>
+        <v>425.7970506502953</v>
       </c>
     </row>
     <row r="8108" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>595.3415772262703</v>
+        <v>595.3415772262701</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>337.8141941337729</v>
+        <v>337.8141941337728</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65391,7 +65391,7 @@
         <v>8131</v>
       </c>
       <c r="B8131">
-        <v>462.791407860517</v>
+        <v>462.7914078605169</v>
       </c>
     </row>
     <row r="8132" spans="1:2">
@@ -65423,7 +65423,7 @@
         <v>8135</v>
       </c>
       <c r="B8135">
-        <v>586.1127702188245</v>
+        <v>586.1127702188244</v>
       </c>
     </row>
     <row r="8136" spans="1:2">
@@ -65439,7 +65439,7 @@
         <v>8137</v>
       </c>
       <c r="B8137">
-        <v>664.5092730607344</v>
+        <v>664.5092730607342</v>
       </c>
     </row>
     <row r="8138" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>718.0211140099094</v>
+        <v>718.0211140099093</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>727.7833103077188</v>
+        <v>727.7833103077187</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>466.2086161713083</v>
+        <v>466.2086161713082</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>384.2249238161836</v>
+        <v>384.2249238161835</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>299.2108769213005</v>
+        <v>299.2108769213004</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65607,7 +65607,7 @@
         <v>8158</v>
       </c>
       <c r="B8158">
-        <v>500.9404649630643</v>
+        <v>500.9404649630642</v>
       </c>
     </row>
     <row r="8159" spans="1:2">
@@ -65639,7 +65639,7 @@
         <v>8162</v>
       </c>
       <c r="B8162">
-        <v>541.8912811952141</v>
+        <v>541.891281195214</v>
       </c>
     </row>
     <row r="8163" spans="1:2">
@@ -65703,7 +65703,7 @@
         <v>8170</v>
       </c>
       <c r="B8170">
-        <v>349.0974291222347</v>
+        <v>349.0974291222346</v>
       </c>
     </row>
     <row r="8171" spans="1:2">
@@ -65759,7 +65759,7 @@
         <v>8177</v>
       </c>
       <c r="B8177">
-        <v>307.0036358393057</v>
+        <v>307.0036358393056</v>
       </c>
     </row>
     <row r="8178" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>447.2527813906925</v>
+        <v>447.2527813906924</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>549.9595268895609</v>
+        <v>549.9595268895608</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65831,7 +65831,7 @@
         <v>8186</v>
       </c>
       <c r="B8186">
-        <v>759.7720141776047</v>
+        <v>759.7720141776045</v>
       </c>
     </row>
     <row r="8187" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>867.460967333716</v>
+        <v>867.4609673337159</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>871.09211750273</v>
+        <v>871.0921175027299</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -65919,7 +65919,7 @@
         <v>8197</v>
       </c>
       <c r="B8197">
-        <v>892.7500672598035</v>
+        <v>892.7500672598034</v>
       </c>
     </row>
     <row r="8198" spans="1:2">
@@ -65951,7 +65951,7 @@
         <v>8201</v>
       </c>
       <c r="B8201">
-        <v>913.543457452826</v>
+        <v>913.5434574528258</v>
       </c>
     </row>
     <row r="8202" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>843.7632431475596</v>
+        <v>843.7632431475595</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>1308.269116584246</v>
+        <v>1308.269116584245</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>908.4235064074122</v>
+        <v>908.423506407412</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>1974.712658500145</v>
+        <v>1974.712658500144</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66687,7 +66687,7 @@
         <v>8293</v>
       </c>
       <c r="B8293">
-        <v>1210.061011528829</v>
+        <v>1210.061011528828</v>
       </c>
     </row>
     <row r="8294" spans="1:2">
@@ -66959,7 +66959,7 @@
         <v>8327</v>
       </c>
       <c r="B8327">
-        <v>1269.30532199422</v>
+        <v>1269.305321994219</v>
       </c>
     </row>
     <row r="8328" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>1913.11791830469</v>
+        <v>1913.117918304689</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>1991.467529780414</v>
+        <v>1991.467529780413</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>1899.663026919748</v>
+        <v>1899.663026919747</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67591,7 +67591,7 @@
         <v>8406</v>
       </c>
       <c r="B8406">
-        <v>1339.944234442764</v>
+        <v>1339.944234442763</v>
       </c>
     </row>
     <row r="8407" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>905.355052632628</v>
+        <v>905.3550526326278</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>1059.343368476459</v>
+        <v>1059.343368476458</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67855,7 +67855,7 @@
         <v>8439</v>
       </c>
       <c r="B8439">
-        <v>1032.313426580723</v>
+        <v>1032.313426580722</v>
       </c>
     </row>
     <row r="8440" spans="1:2">
@@ -68039,7 +68039,7 @@
         <v>8462</v>
       </c>
       <c r="B8462">
-        <v>774.6248544169616</v>
+        <v>774.6248544169615</v>
       </c>
     </row>
     <row r="8463" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>846.9635788897415</v>
+        <v>846.9635788897414</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>987.025158976385</v>
+        <v>987.0251589763848</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>1020.608169296589</v>
+        <v>1020.608169296588</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>1030.229691495841</v>
+        <v>1030.22969149584</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>926.371176815033</v>
+        <v>926.3711768150328</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>1130.33982759217</v>
+        <v>1130.339827592169</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68391,7 +68391,7 @@
         <v>8506</v>
       </c>
       <c r="B8506">
-        <v>1010.069334746327</v>
+        <v>1010.069334746326</v>
       </c>
     </row>
     <row r="8507" spans="1:2">
@@ -68415,7 +68415,7 @@
         <v>8509</v>
       </c>
       <c r="B8509">
-        <v>828.998324219801</v>
+        <v>828.9983242198009</v>
       </c>
     </row>
     <row r="8510" spans="1:2">
@@ -68455,7 +68455,7 @@
         <v>8514</v>
       </c>
       <c r="B8514">
-        <v>768.5231153920324</v>
+        <v>768.5231153920323</v>
       </c>
     </row>
     <row r="8515" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>764.2970310145358</v>
+        <v>764.2970310145357</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>765.3667403056497</v>
+        <v>765.3667403056496</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>761.6007774588514</v>
+        <v>761.6007774588513</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68519,7 +68519,7 @@
         <v>8522</v>
       </c>
       <c r="B8522">
-        <v>855.1197458956867</v>
+        <v>855.1197458956866</v>
       </c>
     </row>
     <row r="8523" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>830.7684732933155</v>
+        <v>830.7684732933154</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>2009.593973521618</v>
+        <v>2009.593973521617</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>2011.976641065935</v>
+        <v>2011.976641065934</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69463,7 +69463,7 @@
         <v>8640</v>
       </c>
       <c r="B8640">
-        <v>2016.859204570033</v>
+        <v>2016.859204570032</v>
       </c>
     </row>
     <row r="8641" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>1923.240591980053</v>
+        <v>1923.240591980052</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>1966.852493243248</v>
+        <v>1966.852493243247</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -69935,7 +69935,7 @@
         <v>8699</v>
       </c>
       <c r="B8699">
-        <v>1964.14158613563</v>
+        <v>1964.141586135629</v>
       </c>
     </row>
     <row r="8700" spans="1:2">
@@ -70007,7 +70007,7 @@
         <v>8708</v>
       </c>
       <c r="B8708">
-        <v>1969.085694557847</v>
+        <v>1969.085694557846</v>
       </c>
     </row>
     <row r="8709" spans="1:2">
@@ -70111,7 +70111,7 @@
         <v>8721</v>
       </c>
       <c r="B8721">
-        <v>1989.3251804878</v>
+        <v>1989.325180487799</v>
       </c>
     </row>
     <row r="8722" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>2064.087602450309</v>
+        <v>2064.087602450308</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>2011.976641065935</v>
+        <v>2011.976641065934</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
@@ -70407,7 +70407,7 @@
         <v>8758</v>
       </c>
       <c r="B8758">
-        <v>2089.039670681936</v>
+        <v>2089.039670681935</v>
       </c>
     </row>
     <row r="8759" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>2100.495817583208</v>
+        <v>2100.495817583207</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
